--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11840" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="题目统计" sheetId="17" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目统计!$B$9:$F$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目统计!$B$9:$F$277</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="266">
   <si>
     <t>题目</t>
   </si>
@@ -60,16 +60,24 @@
 什么是webpack，它有什么作用</t>
   </si>
   <si>
-    <t>2025.02.23~</t>
-  </si>
-  <si>
-    <t>webpack基础含义和配置</t>
+    <t>2025.02.24- 1天</t>
+  </si>
+  <si>
+    <t>1/待检测</t>
+  </si>
+  <si>
+    <t>什么是 Webpack 的 bundle、chunk和 module，分别有什么作用
+webpack 中 module、chunk 、bundle 的区别是什么
+Webpack 中的 chunk 是什么</t>
+  </si>
+  <si>
+    <t>2025.02.25- 1天</t>
   </si>
   <si>
     <t>基础含义和配置</t>
   </si>
   <si>
-    <t>webpack基础配置有哪些</t>
+    <t>webpack基础配置有哪些/核心概念都有哪些</t>
   </si>
   <si>
     <t>Webpack 有哪些常见配置</t>
@@ -94,13 +102,12 @@
 loader的作用是什么</t>
   </si>
   <si>
+    <t>如何保证众多Loader按照想要的顺序执行</t>
+  </si>
+  <si>
     <t>Webpack的Source Map是什么
-如何配置生成Source Map</t>
-  </si>
-  <si>
-    <t>什么是 Webpack 的 bundle、chunk和 module，分别有什么作用
-webpack 中 module、chunk 、bundle 的区别是什么
-Webpack 中的 chunk 是什么</t>
+如何配置生成Source Map
+什么是Source map？如何使用</t>
   </si>
   <si>
     <t>webpack 中的 externals 作用是什么</t>
@@ -113,7 +120,8 @@
   </si>
   <si>
     <t>为什么要使用babel编译，可以达到什么效果
-在webpack内怎么配置，实现使用 babel-loader 来编译 tsx 文件</t>
+在webpack内怎么配置，实现使用 babel-loader 来编译 tsx 文件
+使用 babel-loader 会有哪些问题，可以怎样优化</t>
   </si>
   <si>
     <t>webpack 中的 webpack-dev-server 有什么作用</t>
@@ -128,10 +136,10 @@
     <t>对于一个使用 Webpack 的项目，如果需要直接通过 script 标签引入第三方的资源，应该怎么处理</t>
   </si>
   <si>
-    <t>webpack 在打包时，给生成的文件名上添加的 hash码，是如何生成的</t>
-  </si>
-  <si>
-    <t>Webpack 如果使用了 hash 命名，是否每次都会重新生成 hash? 简单说下 Webpack 的几种 hash 策略</t>
+    <t>Webpack 如果使用了 hash 命名，是否每次都会重新生成 hash? 简单说下 Webpack 的几种 hash 策略
+Chunkhash和Contenthash区别
+什么是文件指纹？文件指纹有什么作用？怎么用
+webpack 在打包时，给生成的文件名上添加的 hash码，是如何生成的</t>
   </si>
   <si>
     <t>说下 Webpack Runtime 和 Manifest 代码的作用</t>
@@ -156,7 +164,8 @@
   </si>
   <si>
     <t>import { Button } from 'antd'，打包的时候只打包 button，分模块加载，是怎么做到的
-如何在 Webpack 中实现按需加载 antd 的组件(如Button)</t>
+如何在 Webpack 中实现按需加载 antd 的组件(如Button)
+按需加载如何实现，原理是什么</t>
   </si>
   <si>
     <t>webpack 如何配 sass，需要配哪些 loader，配 css 需要哪些 loader
@@ -178,17 +187,28 @@
   </si>
   <si>
     <t>webpack 分包的方式有哪些
-前端如何使用 Webpack 进行高效分包优化</t>
+前端如何使用 Webpack 进行高效分包优化
+如何在 WebPack 中代码分割/提取一个公共模块</t>
+  </si>
+  <si>
+    <t>介绍一下 webpack scope hoisting</t>
+  </si>
+  <si>
+    <t>具体说一下 splitchunksplugin 的使用场景及使用方法</t>
   </si>
   <si>
     <t>如何实现 webpack 持久化缓存
-使用 webpack 打包时，如何更好地利用 long term cache</t>
+使用 webpack 打包时，如何更好地利用 long term cache
+长缓存、持久化缓存</t>
   </si>
   <si>
     <t>前端项目中资源的缓存配置策略有哪些</t>
   </si>
   <si>
     <t>如何在 Webpack 中切换开发环境和生产环境</t>
+  </si>
+  <si>
+    <t>webpack 配置如何实现开发环境不使用 cdn、生产环境使用 cdn</t>
   </si>
   <si>
     <t>如何使用 Webpack 解决开发环境中的跨域问题</t>
@@ -201,7 +221,8 @@
 使用 html-webpack-plugin 时找不到指定的 template 文件怎么办</t>
   </si>
   <si>
-    <t>Webpack 中，常见的图片处理加载器有哪些</t>
+    <t>Webpack 中，常见的图片处理加载器有哪些
+webpack 中是如何处理图片的</t>
   </si>
   <si>
     <t>Webpack 中的 publicPath 有什么作用</t>
@@ -256,7 +277,8 @@
     <t>如何将前端项目的 CommonJs 模块转化为 ESM 模块</t>
   </si>
   <si>
-    <t>如何在 React 中动态导入组件</t>
+    <t>如何在 React 中动态导入组件
+webpack 如何实现动态导入</t>
   </si>
   <si>
     <t>在 React 中如何引用第三方插件，比如 Axios</t>
@@ -273,7 +295,8 @@
     <t>webpack5</t>
   </si>
   <si>
-    <t>webpack 5 的主要升级点有哪些</t>
+    <t>webpack 5 的主要升级点有哪些
+webpack5 的新特性</t>
   </si>
   <si>
     <t>说说你对 webpack5 模块联邦的了解</t>
@@ -291,7 +314,8 @@
   <si>
     <t>如何分析前端打包体积
 如何减少打包后的代码体积
-Webpack 打包出来的体积太大，如何优化体积</t>
+Webpack 打包出来的体积太大，如何优化体积
+减少代码体积方案</t>
   </si>
   <si>
     <t>如何配置实现 treeShaking</t>
@@ -302,7 +326,8 @@
   </si>
   <si>
     <t>webpack 做过哪些优化，开发效率方面、打包策略方面等等
-如何使用webpack优化产出代码</t>
+如何使用webpack优化产出代码
+说一下项目里有做过哪些 webpack 上的优化</t>
   </si>
   <si>
     <t>如何优化 Webpack 打包 Vue 应用的速度
@@ -327,7 +352,8 @@
     <t>如何解决 Vue 打包时 vendor 文件过大的问题</t>
   </si>
   <si>
-    <t>如何解决前端 SPA 应用首屏加载速度慢的问题</t>
+    <t>如何解决前端 SPA 应用首屏加载速度慢的问题
+webpack 怎么进行首屏加载的优化</t>
   </si>
   <si>
     <t>有哪些 vue 性能优化的方法</t>
@@ -373,7 +399,8 @@
     <t>Webpack的Tree Shaking原理
 什么情况下会导致 webpack treeShaking 失效
 什么是 vue 3 的 Tree-shaking 特性?有什么作用
-对于已经 import 但未实际使用的模块使用 webpack 还会对它打包吗</t>
+对于已经 import 但未实际使用的模块使用 webpack 还会对它打包吗
+介绍一下 webpack4 中的 tree-shaking 的工作流程</t>
   </si>
   <si>
     <t>ESLint概念和原理</t>
@@ -384,10 +411,15 @@
 Babel 概念和原理</t>
   </si>
   <si>
+    <t>babel 是如何对 class 进行编译的
+解释一下 babel-polyfill 的作用是什么</t>
+  </si>
+  <si>
     <t>webpack 是如何给 web 应用注入环境变量的，说说它的原理</t>
   </si>
   <si>
-    <t>说说webpack proxy工作原理，它为什么能解决跨域</t>
+    <t>说说webpack proxy工作原理，它为什么能解决跨域
+Webpack 代理怎么做</t>
   </si>
   <si>
     <t>webpack-dev-server 是如何启动并运行的
@@ -418,6 +450,17 @@
 webpack 中的 code spliting 是如何动态加载 chunk 的</t>
   </si>
   <si>
+    <t>SourceMap 原理
+跟 Mainfest 的区别</t>
+  </si>
+  <si>
+    <t>Mainfest 文件是什么，有什么用</t>
+  </si>
+  <si>
+    <t>文件监听是什么，怎么用，原理是什么
+跟热更新的区别</t>
+  </si>
+  <si>
     <t>webpack内部原理</t>
   </si>
   <si>
@@ -434,14 +477,16 @@
   <si>
     <t>webpack的构建流程
 Webpack 的打包构建流程是什么
-webpack 的打包流程是什么样的</t>
+webpack 的构建/打包流程是什么
+Webpack 的核心原理是什么</t>
   </si>
   <si>
     <t>Import 和 CommonJS 在 webpack 打包过程中有什么不同
 Webpack打包过程中，lmport 和 CommonJs 有什么区别</t>
   </si>
   <si>
-    <t>说一下 webpack4.x 模块化加载原理?(CommonJS、ES6 module、动态加载)</t>
+    <t>说一下 webpack4.x 模块化加载原理?(CommonJS、ES6 module、动态加载)
+webpack 能动态加载 require 引入的模块吗</t>
   </si>
   <si>
     <t>Webpack 支持哪些脚本模块规范</t>
@@ -464,10 +509,8 @@
 ES Module 与 CommonJs 模块方案有什么异同
 什么是 CommonJs 模块规范?Node.js 如何实现它
 ES6 模块和 CommonJs 模块在 Node.js 中有什么区别
-前端打包时 cjs、es、umd 模块有何不同</t>
-  </si>
-  <si>
-    <t>Webpack 的核心原理是什么</t>
+前端打包时 cjs、es、umd 模块有何不同
+export 和 export default 的区别是什么</t>
   </si>
   <si>
     <t>什么是 Webpack 的生命周期
@@ -484,6 +527,9 @@
   </si>
   <si>
     <t>如何将 CommonJS 转化为 ESM</t>
+  </si>
+  <si>
+    <t>webpack 如何确定依赖引用顺序</t>
   </si>
   <si>
     <t>Npm CLI</t>
@@ -637,7 +683,8 @@
     <t>vite/parcel</t>
   </si>
   <si>
-    <t>vite 比 webpack 快在哪里</t>
+    <t>为什么 Vite 速度比 Webpack 快
+vite 比 webpack 快在哪里</t>
   </si>
   <si>
     <t>vite 和  webpack 在热更新的实现上有什么区别</t>
@@ -652,7 +699,8 @@
   <si>
     <t>Webpack 和 Rollup、Parcel 构建工具有什么区别?各自的优缺点是什么
 webpack、rollup、parcel优劣
-webpack 和 gulp 的优缺点</t>
+webpack 和 gulp 的优缺点
+webpack 和 gulp 的区别是什么</t>
   </si>
   <si>
     <t>为什么用 gulp 打包 node
@@ -674,16 +722,21 @@
   </si>
   <si>
     <t>说说你对前端功能化的理解
-什么是前端工程化?它有什么意义</t>
+什么是前端工程化?它有什么意义
+为什么要工程化
+说一下你对前端工程化，模块化，组件化的理解
+在前端工程化中，可以进行哪些方面的优化</t>
   </si>
   <si>
     <t>说下在项目开发你是怎么组织 CSS 的</t>
   </si>
   <si>
-    <t>说下你的 vue 项目目录结构，如果是大型项目你该怎么划分结构和划分组件呢</t>
-  </si>
-  <si>
-    <t>脚手架具体都做了哪些事，webpack 具体做了什么配置，怎样优化的打包大小</t>
+    <t>说下你的 vue 项目目录结构，如果是大型项目你该怎么划分结构和划分组件呢
+开发过程中，如何进行公共组件的设计</t>
+  </si>
+  <si>
+    <t>脚手架具体都做了哪些事，webpack 具体做了什么配置，怎样优化的打包大小
+如果有一个工程打包特别大-如何进行优化</t>
   </si>
   <si>
     <t>你是怎么配置开发环境的</t>
@@ -838,6 +891,12 @@
     <t>前端如何对分支环境进行部署</t>
   </si>
   <si>
+    <t>Webpack 怎么做错误上报</t>
+  </si>
+  <si>
+    <t>组件发布的是不是所有依赖这个组件库的项目都需要升级</t>
+  </si>
+  <si>
     <t>测试与Git</t>
   </si>
   <si>
@@ -859,6 +918,9 @@
   </si>
   <si>
     <t>如何进行代码质量检测</t>
+  </si>
+  <si>
+    <t>在开发过程中如果需要对已有模块进行扩展，如何进行开发保证调用方不受影响</t>
   </si>
   <si>
     <t>内容</t>
@@ -1567,7 +1629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1611,12 +1673,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,17 +2033,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="70.3461538461538" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.0288461538462" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.0673076923077" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5769230769231" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.8076923076923" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.6538461538462" style="3" customWidth="1"/>
     <col min="6" max="6" width="37.8173076923077" style="3" customWidth="1"/>
@@ -2022,189 +2078,197 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="17"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="59" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="59" customHeight="1" spans="1:6">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="19"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2212,11 +2276,11 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -2224,35 +2288,35 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="76" customHeight="1" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2260,11 +2324,11 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -2272,11 +2336,11 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2284,23 +2348,23 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="105" customHeight="1" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2308,35 +2372,35 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="19"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A29" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A30" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -2344,11 +2408,11 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A31" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
@@ -2356,11 +2420,11 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" s="6">
         <v>2</v>
@@ -2368,23 +2432,23 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="95" customHeight="1" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" s="6">
         <v>2</v>
@@ -2392,11 +2456,11 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6">
         <v>2</v>
@@ -2404,71 +2468,71 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A36" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="19"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A38" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="68" customHeight="1" spans="1:6">
       <c r="A39" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A40" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41" s="6">
         <v>2</v>
@@ -2476,23 +2540,23 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="64" customHeight="1" spans="1:6">
       <c r="A42" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A43" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -2500,11 +2564,11 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A44" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -2512,11 +2576,11 @@
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A45" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -2524,11 +2588,11 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="19"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A46" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46" s="6">
         <v>1</v>
@@ -2536,47 +2600,47 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A47" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A48" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="19"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A49" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="19"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A50" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
@@ -2584,11 +2648,11 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="19"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A51" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -2596,59 +2660,59 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="19"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A52" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="19"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="19"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A54" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="19"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A55" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="19"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A56" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56" s="6">
         <v>1</v>
@@ -2656,35 +2720,35 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A57" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A58" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="19"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A59" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59" s="6">
         <v>1</v>
@@ -2692,11 +2756,11 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="19"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A60" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60" s="6">
         <v>1</v>
@@ -2704,35 +2768,35 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A61" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A62" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="19"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A63" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
@@ -2740,11 +2804,11 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="19"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A64" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64" s="6">
         <v>1</v>
@@ -2752,11 +2816,11 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="19"/>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A65" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65" s="6">
         <v>1</v>
@@ -2764,275 +2828,275 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="19"/>
+      <c r="F65" s="17"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A66" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="19"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A67" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A68" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="19"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A69" s="7"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1</v>
+      </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="19"/>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A70" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A71" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="6">
-        <v>1</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="71" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A71" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A72" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="19"/>
+      <c r="F72" s="17"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A73" s="7"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="19"/>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A74" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="20"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A75" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6">
-        <v>1</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="19"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A74" s="7"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A75" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A76" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B76" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="19"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="64" customHeight="1" spans="1:6">
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A77" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="19"/>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A78" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="19"/>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A79" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="19"/>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
       <c r="A80" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B80" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="19"/>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
       <c r="A81" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B81" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="19"/>
+      <c r="F81" s="17"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A82" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B82" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="19"/>
+      <c r="F82" s="17"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A83" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B83" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="19"/>
+      <c r="F83" s="17"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A84" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B84" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="19"/>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="59" customHeight="1" spans="1:6">
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A85" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="19"/>
-    </row>
-    <row r="86" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="59" customHeight="1" spans="1:6">
       <c r="A86" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="19"/>
+      <c r="F86" s="17"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A87" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="19"/>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A88" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B88" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="19"/>
+      <c r="F88" s="17"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A89" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -3040,11 +3104,11 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="19"/>
+      <c r="F89" s="17"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A90" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -3052,35 +3116,35 @@
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="19"/>
+      <c r="F90" s="17"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A91" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="19"/>
+      <c r="F91" s="17"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A92" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B92" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="19"/>
+      <c r="F92" s="17"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A93" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" s="6">
         <v>1</v>
@@ -3088,11 +3152,11 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="19"/>
+      <c r="F93" s="17"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A94" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" s="6">
         <v>1</v>
@@ -3100,11 +3164,11 @@
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="19"/>
+      <c r="F94" s="17"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A95" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B95" s="6">
         <v>1</v>
@@ -3112,11 +3176,11 @@
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="19"/>
+      <c r="F95" s="17"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A96" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B96" s="6">
         <v>1</v>
@@ -3124,11 +3188,11 @@
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="19"/>
+      <c r="F96" s="17"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A97" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
@@ -3136,113 +3200,113 @@
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="19"/>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A98" s="7"/>
-      <c r="B98" s="6"/>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A98" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="6"/>
-      <c r="F98" s="19"/>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A99" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="20"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="89" customHeight="1" spans="1:6">
-      <c r="A100" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="6">
-        <v>8</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="19"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="69" customHeight="1" spans="1:6">
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A99" s="7"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A100" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="89" customHeight="1" spans="1:6">
       <c r="A101" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B101" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="19"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="110" customHeight="1" spans="1:6">
       <c r="A102" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B102" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="6"/>
-      <c r="F102" s="19"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A103" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B103" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="19"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F103" s="17"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A104" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B104" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="19"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F104" s="17"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A105" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B105" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="19"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+      <c r="F105" s="17"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A106" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B106" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="19"/>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F106" s="17"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
       <c r="A107" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B107" s="6">
         <v>3</v>
@@ -3250,101 +3314,107 @@
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="19"/>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F107" s="17"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A108" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B108" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="19"/>
+      <c r="F108" s="17"/>
     </row>
     <row r="109" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A109" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B109" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="19"/>
+      <c r="F109" s="17"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A110" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B110" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="19"/>
+      <c r="F110" s="17"/>
     </row>
     <row r="111" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A111" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B111" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="6"/>
-      <c r="F111" s="19"/>
+      <c r="F111" s="17"/>
     </row>
     <row r="112" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A112" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B112" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="6"/>
-      <c r="F112" s="19"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A113" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B113" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="6"/>
-      <c r="F113" s="19"/>
+      <c r="F113" s="17"/>
     </row>
     <row r="114" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A114" s="7"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="6">
+        <v>1</v>
+      </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="19"/>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A115" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="20"/>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+      <c r="A115" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="6">
+        <v>2</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A116" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B116" s="6">
         <v>6</v>
@@ -3352,11 +3422,11 @@
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="19"/>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A117" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B117" s="6">
         <v>1</v>
@@ -3364,11 +3434,11 @@
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="6"/>
-      <c r="F117" s="19"/>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A118" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B118" s="6">
         <v>3</v>
@@ -3376,143 +3446,129 @@
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="6"/>
-      <c r="F118" s="19"/>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A119" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" s="6">
-        <v>6</v>
-      </c>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+      <c r="A119" s="7"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="6"/>
-      <c r="F119" s="19"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
-      <c r="A120" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" s="6">
-        <v>2</v>
-      </c>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+      <c r="A120" s="7"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="19"/>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A121" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" s="6">
-        <v>1</v>
-      </c>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A121" s="7"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="6"/>
-      <c r="F121" s="19"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
-      <c r="A122" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B122" s="6">
-        <v>1</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="19"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A122" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A123" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="6"/>
-      <c r="F123" s="19"/>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="F123" s="17"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A124" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="19"/>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="F124" s="17"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A125" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="19"/>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="F125" s="17"/>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
       <c r="A126" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="19"/>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="116" customHeight="1" spans="1:6">
+      <c r="F126" s="17"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
       <c r="A127" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="19"/>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="84" customHeight="1" spans="1:6">
       <c r="A128" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="19"/>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="F128" s="17"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A129" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="6"/>
-      <c r="F129" s="19"/>
-    </row>
-    <row r="130" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="F129" s="17"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A130" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="6">
         <v>1</v>
@@ -3520,23 +3576,23 @@
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="6"/>
-      <c r="F130" s="19"/>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A131" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="6"/>
-      <c r="F131" s="19"/>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A132" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" s="6">
         <v>1</v>
@@ -3544,11 +3600,11 @@
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="6"/>
-      <c r="F132" s="19"/>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A133" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="6">
         <v>1</v>
@@ -3556,41 +3612,47 @@
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="6"/>
-      <c r="F133" s="19"/>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A134" s="7"/>
-      <c r="B134" s="6"/>
+      <c r="F133" s="17"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="145" customHeight="1" spans="1:6">
+      <c r="A134" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="6">
+        <v>8</v>
+      </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="19"/>
-    </row>
-    <row r="135" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A135" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="20"/>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="88" customHeight="1" spans="1:6">
+      <c r="F134" s="17"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A135" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="6">
+        <v>2</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="17"/>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A136" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B136" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="19"/>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F136" s="17"/>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A137" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="6">
         <v>1</v>
@@ -3598,11 +3660,11 @@
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="19"/>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F137" s="17"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A138" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B138" s="6">
         <v>1</v>
@@ -3610,11 +3672,11 @@
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="6"/>
-      <c r="F138" s="19"/>
-    </row>
-    <row r="139" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F138" s="17"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A139" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B139" s="6">
         <v>1</v>
@@ -3622,59 +3684,53 @@
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="6"/>
-      <c r="F139" s="19"/>
-    </row>
-    <row r="140" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F139" s="17"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A140" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B140" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="19"/>
+      <c r="F140" s="17"/>
     </row>
     <row r="141" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A141" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B141" s="6">
-        <v>1</v>
-      </c>
+      <c r="A141" s="7"/>
+      <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="6"/>
-      <c r="F141" s="19"/>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A142" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142" s="6">
-        <v>1</v>
-      </c>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="19"/>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F141" s="17"/>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A142" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="88" customHeight="1" spans="1:6">
       <c r="A143" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="6"/>
-      <c r="F143" s="19"/>
+      <c r="F143" s="17"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A144" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B144" s="6">
         <v>1</v>
@@ -3682,23 +3738,23 @@
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="6"/>
-      <c r="F144" s="19"/>
+      <c r="F144" s="17"/>
     </row>
     <row r="145" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A145" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B145" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="6"/>
-      <c r="F145" s="19"/>
+      <c r="F145" s="17"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A146" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B146" s="6">
         <v>1</v>
@@ -3706,23 +3762,23 @@
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="6"/>
-      <c r="F146" s="19"/>
+      <c r="F146" s="17"/>
     </row>
     <row r="147" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A147" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B147" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="6"/>
-      <c r="F147" s="19"/>
+      <c r="F147" s="17"/>
     </row>
     <row r="148" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A148" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B148" s="6">
         <v>1</v>
@@ -3730,11 +3786,11 @@
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="6"/>
-      <c r="F148" s="19"/>
+      <c r="F148" s="17"/>
     </row>
     <row r="149" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A149" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B149" s="6">
         <v>1</v>
@@ -3742,11 +3798,11 @@
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="6"/>
-      <c r="F149" s="19"/>
+      <c r="F149" s="17"/>
     </row>
     <row r="150" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A150" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B150" s="6">
         <v>1</v>
@@ -3754,11 +3810,11 @@
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="19"/>
+      <c r="F150" s="17"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A151" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B151" s="6">
         <v>1</v>
@@ -3766,23 +3822,23 @@
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="6"/>
-      <c r="F151" s="19"/>
+      <c r="F151" s="17"/>
     </row>
     <row r="152" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A152" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="6"/>
-      <c r="F152" s="19"/>
+      <c r="F152" s="17"/>
     </row>
     <row r="153" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A153" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B153" s="6">
         <v>1</v>
@@ -3790,11 +3846,11 @@
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="19"/>
+      <c r="F153" s="17"/>
     </row>
     <row r="154" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A154" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B154" s="6">
         <v>1</v>
@@ -3802,11 +3858,11 @@
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="6"/>
-      <c r="F154" s="19"/>
+      <c r="F154" s="17"/>
     </row>
     <row r="155" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A155" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B155" s="6">
         <v>1</v>
@@ -3814,11 +3870,11 @@
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="6"/>
-      <c r="F155" s="19"/>
+      <c r="F155" s="17"/>
     </row>
     <row r="156" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A156" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B156" s="6">
         <v>1</v>
@@ -3826,11 +3882,11 @@
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="6"/>
-      <c r="F156" s="19"/>
+      <c r="F156" s="17"/>
     </row>
     <row r="157" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A157" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B157" s="6">
         <v>1</v>
@@ -3838,11 +3894,11 @@
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="6"/>
-      <c r="F157" s="19"/>
+      <c r="F157" s="17"/>
     </row>
     <row r="158" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A158" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B158" s="6">
         <v>1</v>
@@ -3850,11 +3906,11 @@
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="6"/>
-      <c r="F158" s="19"/>
+      <c r="F158" s="17"/>
     </row>
     <row r="159" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A159" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B159" s="6">
         <v>1</v>
@@ -3862,11 +3918,11 @@
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="6"/>
-      <c r="F159" s="19"/>
+      <c r="F159" s="17"/>
     </row>
     <row r="160" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A160" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B160" s="6">
         <v>1</v>
@@ -3874,11 +3930,11 @@
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="6"/>
-      <c r="F160" s="19"/>
+      <c r="F160" s="17"/>
     </row>
     <row r="161" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A161" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B161" s="6">
         <v>1</v>
@@ -3886,11 +3942,11 @@
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="6"/>
-      <c r="F161" s="19"/>
+      <c r="F161" s="17"/>
     </row>
     <row r="162" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A162" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" s="6">
         <v>1</v>
@@ -3898,11 +3954,11 @@
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="6"/>
-      <c r="F162" s="19"/>
+      <c r="F162" s="17"/>
     </row>
     <row r="163" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A163" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B163" s="6">
         <v>1</v>
@@ -3910,11 +3966,11 @@
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="6"/>
-      <c r="F163" s="19"/>
+      <c r="F163" s="17"/>
     </row>
     <row r="164" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A164" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B164" s="6">
         <v>1</v>
@@ -3922,11 +3978,11 @@
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="6"/>
-      <c r="F164" s="19"/>
+      <c r="F164" s="17"/>
     </row>
     <row r="165" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A165" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B165" s="6">
         <v>1</v>
@@ -3934,11 +3990,11 @@
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="6"/>
-      <c r="F165" s="19"/>
+      <c r="F165" s="17"/>
     </row>
     <row r="166" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A166" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B166" s="6">
         <v>1</v>
@@ -3946,11 +4002,11 @@
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="6"/>
-      <c r="F166" s="19"/>
+      <c r="F166" s="17"/>
     </row>
     <row r="167" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A167" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B167" s="6">
         <v>1</v>
@@ -3958,11 +4014,11 @@
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="6"/>
-      <c r="F167" s="19"/>
+      <c r="F167" s="17"/>
     </row>
     <row r="168" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A168" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B168" s="6">
         <v>1</v>
@@ -3970,11 +4026,11 @@
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="6"/>
-      <c r="F168" s="19"/>
+      <c r="F168" s="17"/>
     </row>
     <row r="169" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A169" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B169" s="6">
         <v>1</v>
@@ -3982,11 +4038,11 @@
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="6"/>
-      <c r="F169" s="19"/>
+      <c r="F169" s="17"/>
     </row>
     <row r="170" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A170" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B170" s="6">
         <v>1</v>
@@ -3994,11 +4050,11 @@
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="6"/>
-      <c r="F170" s="19"/>
+      <c r="F170" s="17"/>
     </row>
     <row r="171" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A171" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B171" s="6">
         <v>1</v>
@@ -4006,55 +4062,59 @@
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="6"/>
-      <c r="F171" s="19"/>
+      <c r="F171" s="17"/>
     </row>
     <row r="172" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A172" s="7"/>
-      <c r="B172" s="6"/>
+      <c r="A172" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" s="6">
+        <v>1</v>
+      </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="6"/>
-      <c r="F172" s="19"/>
-    </row>
-    <row r="173" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A173" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B173" s="9">
-        <v>1</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="20"/>
+      <c r="F172" s="17"/>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A173" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173" s="6">
+        <v>1</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="17"/>
     </row>
     <row r="174" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A174" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B174" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="6"/>
-      <c r="F174" s="8"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="F174" s="17"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A175" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="6"/>
-      <c r="F175" s="19"/>
+      <c r="F175" s="17"/>
     </row>
     <row r="176" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A176" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="6">
         <v>1</v>
@@ -4062,11 +4122,11 @@
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="6"/>
-      <c r="F176" s="19"/>
+      <c r="F176" s="17"/>
     </row>
     <row r="177" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A177" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B177" s="6">
         <v>1</v>
@@ -4074,11 +4134,11 @@
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="6"/>
-      <c r="F177" s="19"/>
+      <c r="F177" s="17"/>
     </row>
     <row r="178" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A178" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="6">
         <v>1</v>
@@ -4086,53 +4146,55 @@
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="6"/>
-      <c r="F178" s="19"/>
+      <c r="F178" s="17"/>
     </row>
     <row r="179" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A179" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B179" s="6">
-        <v>1</v>
-      </c>
+      <c r="A179" s="7"/>
+      <c r="B179" s="6"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="6"/>
-      <c r="F179" s="19"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A180" s="7"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="19"/>
-    </row>
-    <row r="181" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A181" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="20"/>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F179" s="17"/>
+    </row>
+    <row r="180" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A180" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180" s="9">
+        <v>1</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A181" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181" s="6">
+        <v>2</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A182" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B182" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="6"/>
-      <c r="F182" s="8"/>
+      <c r="F182" s="17"/>
     </row>
     <row r="183" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A183" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B183" s="6">
         <v>1</v>
@@ -4140,68 +4202,68 @@
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="6"/>
-      <c r="F183" s="8"/>
+      <c r="F183" s="17"/>
     </row>
     <row r="184" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A184" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B184" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="6"/>
-      <c r="F184" s="8"/>
+      <c r="F184" s="17"/>
     </row>
     <row r="185" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A185" s="7"/>
-      <c r="B185" s="6"/>
+      <c r="A185" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" s="6">
+        <v>1</v>
+      </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="6"/>
-      <c r="F185" s="19"/>
-    </row>
-    <row r="186" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A186" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="20"/>
+      <c r="F185" s="17"/>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A186" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186" s="6">
+        <v>1</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="17"/>
     </row>
     <row r="187" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A187" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B187" s="6">
-        <v>1</v>
-      </c>
+      <c r="A187" s="7"/>
+      <c r="B187" s="6"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="6"/>
-      <c r="F187" s="8"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A188" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B188" s="6">
-        <v>1</v>
-      </c>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="8"/>
+      <c r="F187" s="17"/>
+    </row>
+    <row r="188" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A188" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188" s="9"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="18"/>
     </row>
     <row r="189" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A189" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B189" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -4210,7 +4272,7 @@
     </row>
     <row r="190" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A190" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B190" s="6">
         <v>1</v>
@@ -4220,75 +4282,75 @@
       <c r="E190" s="6"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
+    <row r="191" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A191" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B191" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="6"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" s="1" customFormat="1" ht="74" customHeight="1" spans="1:6">
-      <c r="A192" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B192" s="6">
-        <v>3</v>
-      </c>
+    <row r="192" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A192" s="7"/>
+      <c r="B192" s="6"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="6"/>
-      <c r="F192" s="8"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A193" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B193" s="6">
+      <c r="F192" s="17"/>
+    </row>
+    <row r="193" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A193" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="9"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="18"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
+      <c r="A194" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B194" s="6">
         <v>2</v>
       </c>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="8"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A194" s="7"/>
-      <c r="B194" s="6"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="6"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A195" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B195" s="9"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="20"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+    <row r="195" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A195" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" s="6">
+        <v>1</v>
+      </c>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A196" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B196" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="6"/>
-      <c r="F196" s="19"/>
+      <c r="F196" s="8"/>
     </row>
     <row r="197" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A197" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B197" s="6">
         <v>1</v>
@@ -4298,9 +4360,9 @@
       <c r="E197" s="6"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
+    <row r="198" s="1" customFormat="1" ht="80" customHeight="1" spans="1:6">
       <c r="A198" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B198" s="6">
         <v>4</v>
@@ -4310,84 +4372,78 @@
       <c r="E198" s="6"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="199" s="1" customFormat="1" ht="74" customHeight="1" spans="1:6">
       <c r="A199" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B199" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="6"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="200" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A200" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B200" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="6"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A201" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B201" s="6">
-        <v>1</v>
-      </c>
+    <row r="201" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A201" s="7"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="6"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A202" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B202" s="6">
-        <v>1</v>
-      </c>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="8"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="202" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A202" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B202" s="9"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="18"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A203" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B203" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="6"/>
-      <c r="F203" s="8"/>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="63" customHeight="1" spans="1:6">
+      <c r="F203" s="17"/>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A204" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B204" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="6"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="205" s="1" customFormat="1" ht="90" customHeight="1" spans="1:6">
       <c r="A205" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B205" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
@@ -4396,7 +4452,7 @@
     </row>
     <row r="206" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A206" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B206" s="6">
         <v>2</v>
@@ -4406,24 +4462,24 @@
       <c r="E206" s="6"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="207" s="1" customFormat="1" ht="81" customHeight="1" spans="1:6">
       <c r="A207" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B207" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="6"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="208" s="1" customFormat="1" ht="75" customHeight="1" spans="1:6">
       <c r="A208" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B208" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -4432,7 +4488,7 @@
     </row>
     <row r="209" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A209" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B209" s="6">
         <v>1</v>
@@ -4444,7 +4500,7 @@
     </row>
     <row r="210" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A210" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B210" s="6">
         <v>1</v>
@@ -4454,12 +4510,12 @@
       <c r="E210" s="6"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="211" s="1" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A211" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B211" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
@@ -4468,7 +4524,7 @@
     </row>
     <row r="212" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A212" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B212" s="6">
         <v>1</v>
@@ -4480,10 +4536,10 @@
     </row>
     <row r="213" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A213" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B213" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
@@ -4492,7 +4548,7 @@
     </row>
     <row r="214" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A214" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B214" s="6">
         <v>1</v>
@@ -4504,7 +4560,7 @@
     </row>
     <row r="215" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A215" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B215" s="6">
         <v>1</v>
@@ -4516,7 +4572,7 @@
     </row>
     <row r="216" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A216" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B216" s="6">
         <v>1</v>
@@ -4528,7 +4584,7 @@
     </row>
     <row r="217" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A217" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B217" s="6">
         <v>1</v>
@@ -4540,7 +4596,7 @@
     </row>
     <row r="218" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A218" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="6">
         <v>1</v>
@@ -4552,7 +4608,7 @@
     </row>
     <row r="219" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A219" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B219" s="6">
         <v>1</v>
@@ -4564,7 +4620,7 @@
     </row>
     <row r="220" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A220" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B220" s="6">
         <v>1</v>
@@ -4576,7 +4632,7 @@
     </row>
     <row r="221" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A221" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B221" s="6">
         <v>1</v>
@@ -4588,7 +4644,7 @@
     </row>
     <row r="222" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A222" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B222" s="6">
         <v>1</v>
@@ -4600,7 +4656,7 @@
     </row>
     <row r="223" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A223" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B223" s="6">
         <v>1</v>
@@ -4612,7 +4668,7 @@
     </row>
     <row r="224" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A224" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B224" s="6">
         <v>1</v>
@@ -4624,7 +4680,7 @@
     </row>
     <row r="225" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A225" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B225" s="6">
         <v>1</v>
@@ -4636,7 +4692,7 @@
     </row>
     <row r="226" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A226" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B226" s="6">
         <v>1</v>
@@ -4648,7 +4704,7 @@
     </row>
     <row r="227" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A227" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B227" s="6">
         <v>1</v>
@@ -4660,7 +4716,7 @@
     </row>
     <row r="228" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A228" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B228" s="6">
         <v>1</v>
@@ -4672,7 +4728,7 @@
     </row>
     <row r="229" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A229" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B229" s="6">
         <v>1</v>
@@ -4684,7 +4740,7 @@
     </row>
     <row r="230" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A230" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B230" s="6">
         <v>1</v>
@@ -4696,7 +4752,7 @@
     </row>
     <row r="231" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A231" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B231" s="6">
         <v>1</v>
@@ -4708,7 +4764,7 @@
     </row>
     <row r="232" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A232" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B232" s="6">
         <v>1</v>
@@ -4720,7 +4776,7 @@
     </row>
     <row r="233" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A233" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B233" s="6">
         <v>1</v>
@@ -4732,7 +4788,7 @@
     </row>
     <row r="234" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A234" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B234" s="6">
         <v>1</v>
@@ -4744,7 +4800,7 @@
     </row>
     <row r="235" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A235" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B235" s="6">
         <v>1</v>
@@ -4756,7 +4812,7 @@
     </row>
     <row r="236" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A236" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B236" s="6">
         <v>1</v>
@@ -4768,7 +4824,7 @@
     </row>
     <row r="237" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A237" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B237" s="6">
         <v>1</v>
@@ -4780,7 +4836,7 @@
     </row>
     <row r="238" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A238" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B238" s="6">
         <v>1</v>
@@ -4792,7 +4848,7 @@
     </row>
     <row r="239" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A239" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B239" s="6">
         <v>1</v>
@@ -4804,7 +4860,7 @@
     </row>
     <row r="240" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A240" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" s="6">
         <v>1</v>
@@ -4816,7 +4872,7 @@
     </row>
     <row r="241" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A241" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="6">
         <v>1</v>
@@ -4828,7 +4884,7 @@
     </row>
     <row r="242" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A242" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B242" s="6">
         <v>1</v>
@@ -4840,7 +4896,7 @@
     </row>
     <row r="243" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A243" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B243" s="6">
         <v>1</v>
@@ -4852,7 +4908,7 @@
     </row>
     <row r="244" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A244" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B244" s="6">
         <v>1</v>
@@ -4864,7 +4920,7 @@
     </row>
     <row r="245" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A245" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B245" s="6">
         <v>1</v>
@@ -4876,7 +4932,7 @@
     </row>
     <row r="246" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A246" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B246" s="6">
         <v>1</v>
@@ -4888,7 +4944,7 @@
     </row>
     <row r="247" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A247" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B247" s="6">
         <v>1</v>
@@ -4900,7 +4956,7 @@
     </row>
     <row r="248" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A248" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B248" s="6">
         <v>1</v>
@@ -4912,7 +4968,7 @@
     </row>
     <row r="249" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A249" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B249" s="6">
         <v>1</v>
@@ -4924,7 +4980,7 @@
     </row>
     <row r="250" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A250" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B250" s="6">
         <v>1</v>
@@ -4936,7 +4992,7 @@
     </row>
     <row r="251" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A251" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B251" s="6">
         <v>1</v>
@@ -4946,27 +5002,33 @@
       <c r="E251" s="6"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A252" s="7"/>
-      <c r="B252" s="6"/>
+    <row r="252" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A252" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B252" s="6">
+        <v>1</v>
+      </c>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="6"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A253" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B253" s="9"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="9"/>
-      <c r="F253" s="20"/>
-    </row>
-    <row r="254" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="253" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A253" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B253" s="6">
+        <v>1</v>
+      </c>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="8"/>
+    </row>
+    <row r="254" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A254" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B254" s="6">
         <v>1</v>
@@ -4976,9 +5038,9 @@
       <c r="E254" s="6"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="255" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A255" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B255" s="6">
         <v>1</v>
@@ -4988,9 +5050,9 @@
       <c r="E255" s="6"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" s="1" customFormat="1" ht="54" customHeight="1" spans="1:6">
+    <row r="256" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A256" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B256" s="6">
         <v>1</v>
@@ -5000,9 +5062,9 @@
       <c r="E256" s="6"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="257" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A257" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B257" s="6">
         <v>1</v>
@@ -5014,7 +5076,7 @@
     </row>
     <row r="258" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A258" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B258" s="6">
         <v>1</v>
@@ -5024,9 +5086,9 @@
       <c r="E258" s="6"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="259" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A259" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B259" s="6">
         <v>1</v>
@@ -5036,9 +5098,13 @@
       <c r="E259" s="6"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A260" s="7"/>
-      <c r="B260" s="6"/>
+    <row r="260" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A260" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B260" s="6">
+        <v>1</v>
+      </c>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="6"/>
@@ -5052,63 +5118,165 @@
       <c r="E261" s="6"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A262" s="7"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="7"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="8"/>
-    </row>
-    <row r="263" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
-      <c r="A263" s="7"/>
-      <c r="B263" s="6"/>
+    <row r="262" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A262" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B262" s="9"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="18"/>
+    </row>
+    <row r="263" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A263" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B263" s="6">
+        <v>1</v>
+      </c>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="6"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A264" s="7"/>
-      <c r="B264" s="6"/>
+    <row r="264" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A264" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B264" s="6">
+        <v>1</v>
+      </c>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="6"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A265" s="7"/>
-      <c r="B265" s="6"/>
+    <row r="265" s="1" customFormat="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A265" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B265" s="6">
+        <v>1</v>
+      </c>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="6"/>
       <c r="F265" s="8"/>
     </row>
     <row r="266" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A266" s="7"/>
-      <c r="B266" s="6"/>
+      <c r="A266" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B266" s="6">
+        <v>1</v>
+      </c>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
-      <c r="E266" s="12"/>
+      <c r="E266" s="6"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A267" s="7"/>
-      <c r="B267" s="6"/>
+    <row r="267" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A267" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B267" s="6">
+        <v>1</v>
+      </c>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
-      <c r="E267" s="12"/>
+      <c r="E267" s="6"/>
       <c r="F267" s="8"/>
     </row>
     <row r="268" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A268" s="7"/>
-      <c r="B268" s="6"/>
+      <c r="A268" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B268" s="6">
+        <v>1</v>
+      </c>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
-      <c r="E268" s="12"/>
+      <c r="E268" s="6"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" ht="34" customHeight="1"/>
+    <row r="269" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A269" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B269" s="6">
+        <v>1</v>
+      </c>
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="8"/>
+    </row>
+    <row r="270" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A270" s="7"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="8"/>
+    </row>
+    <row r="271" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A271" s="7"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="8"/>
+    </row>
+    <row r="272" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
+      <c r="A272" s="7"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="8"/>
+    </row>
+    <row r="273" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A273" s="7"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="8"/>
+    </row>
+    <row r="274" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A274" s="7"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="8"/>
+    </row>
+    <row r="275" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A275" s="7"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="12"/>
+      <c r="F275" s="8"/>
+    </row>
+    <row r="276" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A276" s="7"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="8"/>
+    </row>
+    <row r="277" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A277" s="7"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="12"/>
+      <c r="F277" s="8"/>
+    </row>
+    <row r="278" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5138,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -5149,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -5158,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目统计!$B$9:$F$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目统计!$B$9:$F$275</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="269">
   <si>
     <t>题目</t>
   </si>
@@ -66,6 +66,9 @@
     <t>1/待检测</t>
   </si>
   <si>
+    <t>基础含义与配置</t>
+  </si>
+  <si>
     <t>什么是 Webpack 的 bundle、chunk和 module，分别有什么作用
 webpack 中 module、chunk 、bundle 的区别是什么
 Webpack 中的 chunk 是什么</t>
@@ -74,434 +77,11 @@
     <t>2025.02.25- 1天</t>
   </si>
   <si>
-    <t>基础含义和配置</t>
-  </si>
-  <si>
-    <t>webpack基础配置有哪些/核心概念都有哪些</t>
-  </si>
-  <si>
-    <t>Webpack 有哪些常见配置</t>
-  </si>
-  <si>
-    <t>Webpack 中的运行时 chunk 是什么
-webpack 的 runtime 做了什么事情
-在项目工程中，如何打包和加载这个 运行时 chunk</t>
-  </si>
-  <si>
-    <t>使用过 哪些常见的 Loader 和 Plugin</t>
-  </si>
-  <si>
     <t>Webpack 中的 Loader 和 Plugin 是什么?二者有什么区别
 Loader和Plugin的区别</t>
   </si>
   <si>
-    <t>说说webpack中常见的Plugin，解决了什么问题</t>
-  </si>
-  <si>
-    <t>说说webpack中常见的Loader，解决了什么问题
-loader的作用是什么</t>
-  </si>
-  <si>
-    <t>如何保证众多Loader按照想要的顺序执行</t>
-  </si>
-  <si>
-    <t>Webpack的Source Map是什么
-如何配置生成Source Map
-什么是Source map？如何使用</t>
-  </si>
-  <si>
-    <t>webpack 中的 externals 作用是什么</t>
-  </si>
-  <si>
-    <t>怎么使用 webpack，将 JS 文件中的 css 提取到单独的样式文件中</t>
-  </si>
-  <si>
-    <t>Webpack 怎么配置多入口应用， 并实现公共依赖的提取</t>
-  </si>
-  <si>
-    <t>为什么要使用babel编译，可以达到什么效果
-在webpack内怎么配置，实现使用 babel-loader 来编译 tsx 文件
-使用 babel-loader 会有哪些问题，可以怎样优化</t>
-  </si>
-  <si>
-    <t>webpack 中的 webpack-dev-server 有什么作用</t>
-  </si>
-  <si>
-    <t>webpack 中的 webpack-dev-server 为什么不适用于线上环境</t>
-  </si>
-  <si>
-    <t>如何修改 webpack-dev-server 的端口</t>
-  </si>
-  <si>
-    <t>对于一个使用 Webpack 的项目，如果需要直接通过 script 标签引入第三方的资源，应该怎么处理</t>
-  </si>
-  <si>
-    <t>Webpack 如果使用了 hash 命名，是否每次都会重新生成 hash? 简单说下 Webpack 的几种 hash 策略
-Chunkhash和Contenthash区别
-什么是文件指纹？文件指纹有什么作用？怎么用
-webpack 在打包时，给生成的文件名上添加的 hash码，是如何生成的</t>
-  </si>
-  <si>
-    <t>说下 Webpack Runtime 和 Manifest 代码的作用</t>
-  </si>
-  <si>
-    <t>说下你对 ESLint 的了解？ 如何使用
-简述下 eslint 的作用</t>
-  </si>
-  <si>
-    <t>webpack 中 css-loader 和 style-loader 的区别，file-loader 和 url-loader 的区别</t>
-  </si>
-  <si>
-    <t>如何用webpack处理内联CSS</t>
-  </si>
-  <si>
-    <t>如何用localStoragewebpack 离线缓存静态资源
-如何使用 Webpack 和 LocalStorage 实现静态资源的离线缓存</t>
-  </si>
-  <si>
-    <t>A、B 两个条件组件，如何做到 webpack 只打包条件为 true 的组件，false 的组件不打包
-如何在 Webpack 中实现条件组件的按需打包</t>
-  </si>
-  <si>
-    <t>import { Button } from 'antd'，打包的时候只打包 button，分模块加载，是怎么做到的
-如何在 Webpack 中实现按需加载 antd 的组件(如Button)
-按需加载如何实现，原理是什么</t>
-  </si>
-  <si>
-    <t>webpack 如何配 sass，需要配哪些 loader，配 css 需要哪些 loader
-如何配置 Webpack 以支持 Sass 编译?需要使用哪些Loade</t>
-  </si>
-  <si>
-    <t>如何利用 Webpack将 JS、CSS、HTML 单独打包成一个文件
-如何配置把 js、css、html 单独打包成一个文件</t>
-  </si>
-  <si>
-    <t>如何实现webpack的分模块打包（多入口）
-使用 webpack 如何分包</t>
-  </si>
-  <si>
-    <t>一个活动项目里包含多个活动，Webpack 如何实现单独打包某个活动</t>
-  </si>
-  <si>
-    <t>请说明 JavaScript 进行压缩、合并、打包实现的原理是什么？为什么需要压缩、合并、打包？分别列出一种常用工具或插件</t>
-  </si>
-  <si>
-    <t>webpack 分包的方式有哪些
-前端如何使用 Webpack 进行高效分包优化
-如何在 WebPack 中代码分割/提取一个公共模块</t>
-  </si>
-  <si>
-    <t>介绍一下 webpack scope hoisting</t>
-  </si>
-  <si>
-    <t>具体说一下 splitchunksplugin 的使用场景及使用方法</t>
-  </si>
-  <si>
-    <t>如何实现 webpack 持久化缓存
-使用 webpack 打包时，如何更好地利用 long term cache
-长缓存、持久化缓存</t>
-  </si>
-  <si>
-    <t>前端项目中资源的缓存配置策略有哪些</t>
-  </si>
-  <si>
-    <t>如何在 Webpack 中切换开发环境和生产环境</t>
-  </si>
-  <si>
-    <t>webpack 配置如何实现开发环境不使用 cdn、生产环境使用 cdn</t>
-  </si>
-  <si>
-    <t>如何使用 Webpack 解决开发环境中的跨域问题</t>
-  </si>
-  <si>
-    <t>如何使用 webpack-dev-server 监控文件编译</t>
-  </si>
-  <si>
-    <t>Webpack的html-webpack-plugin 插件有什么作用
-使用 html-webpack-plugin 时找不到指定的 template 文件怎么办</t>
-  </si>
-  <si>
-    <t>Webpack 中，常见的图片处理加载器有哪些
-webpack 中是如何处理图片的</t>
-  </si>
-  <si>
-    <t>Webpack 中的 publicPath 有什么作用</t>
-  </si>
-  <si>
-    <t>如何使用 Webpack 配置单页应用和多页应用</t>
-  </si>
-  <si>
-    <t>Webpack 命令中的 --config 选项有什么作用</t>
-  </si>
-  <si>
-    <t>Webpack 抽取公共文件是怎么配置的
-如何在 Webpack 中配置公共文件的抽取</t>
-  </si>
-  <si>
-    <t>如何在 React 项目中引入图片?哪种方式更好</t>
-  </si>
-  <si>
-    <t>如何在 React 项目中开启生产模式
-如何在 React 中让编译器生成生产环境版本</t>
-  </si>
-  <si>
-    <t>Vue 项目中 assets 和 static 的区别是什么</t>
-  </si>
-  <si>
-    <t>如何解决 vue 打包后静态资源图片失效的问题</t>
-  </si>
-  <si>
-    <t>JavaScript 脚本延迟加载的方式有哪些
-HTML 的 script 标签中 defer 和 async 有什么区别</t>
-  </si>
-  <si>
-    <t>如何在 React 中根据不同的环境打包不同的域名</t>
-  </si>
-  <si>
-    <t>如何在 React 项目中去除生产环境中的 sourcemap</t>
-  </si>
-  <si>
-    <t>CSS 预处理器/后处理器是什么?为什么要使用它</t>
-  </si>
-  <si>
-    <t>前端项目中如何配置 HTTP 缓存机制
-现代前端应用应如何配置 HTTP 缓存机制</t>
-  </si>
-  <si>
-    <t>当使用 Babel 打包的 JavaScript 文件中包含 JSX 语法时报错时，如何解决</t>
-  </si>
-  <si>
-    <t>在 window 对象中，模块间依赖关系由文件加载顺序决定，这种模块组织方式有哪些缺点</t>
-  </si>
-  <si>
-    <t>如何将前端项目的 CommonJs 模块转化为 ESM 模块</t>
-  </si>
-  <si>
-    <t>如何在 React 中动态导入组件
-webpack 如何实现动态导入</t>
-  </si>
-  <si>
-    <t>在 React 中如何引用第三方插件，比如 Axios</t>
-  </si>
-  <si>
-    <t>打包器(webpack/rollup) 如何将打包后的 js 资源注入 html 中
-打包器(webpack/rollup) 如何加载 json、image 等非 Javascript 资源
-打包器(webpack/rollup) 如何加载 style 样式资源</t>
-  </si>
-  <si>
-    <t>webpack 中是如何处理 new URL 资源的</t>
-  </si>
-  <si>
-    <t>webpack5</t>
-  </si>
-  <si>
-    <t>webpack 5 的主要升级点有哪些
-webpack5 的新特性</t>
-  </si>
-  <si>
-    <t>说说你对 webpack5 模块联邦的了解</t>
-  </si>
-  <si>
-    <t>性能优化</t>
-  </si>
-  <si>
-    <t>什么是Code Splitting，如何实现</t>
-  </si>
-  <si>
-    <t>如何提高webpack的打包速度/构建速度
-Webpack 为什么慢，如何进行优化</t>
-  </si>
-  <si>
-    <t>如何分析前端打包体积
-如何减少打包后的代码体积
-Webpack 打包出来的体积太大，如何优化体积
-减少代码体积方案</t>
-  </si>
-  <si>
-    <t>如何配置实现 treeShaking</t>
-  </si>
-  <si>
-    <t>如何借助webpack 来优化前端性能
-在前端开发中，如何优化网页的加载性能和渲染性能?请提供一些常见的优化策略和技巧</t>
-  </si>
-  <si>
-    <t>webpack 做过哪些优化，开发效率方面、打包策略方面等等
-如何使用webpack优化产出代码
-说一下项目里有做过哪些 webpack 上的优化</t>
-  </si>
-  <si>
-    <t>如何优化 Webpack 打包 Vue 应用的速度
-如何使用 Webpack 实现 Vue 项目的打包任务</t>
-  </si>
-  <si>
-    <t>用 Webpack 打包 React 项目时，如何减小生成的JavaScript 文件大小</t>
-  </si>
-  <si>
-    <t>如何压缩前端项目中的 JavaScript 文件大小/  JS体积
-如何进行前端代码的打包和压缩</t>
-  </si>
-  <si>
-    <t>前端开发中如何优化网络请求和资源加载?具体怎么实现</t>
-  </si>
-  <si>
-    <t>开发环境热更新的优化方式
-如何优化前端开发环境的热更新效率
-前端开发中的 Live-Reload 自动刷新与 HMR 热模块替换有什么区别</t>
-  </si>
-  <si>
-    <t>如何解决 Vue 打包时 vendor 文件过大的问题</t>
-  </si>
-  <si>
-    <t>如何解决前端 SPA 应用首屏加载速度慢的问题
-webpack 怎么进行首屏加载的优化</t>
-  </si>
-  <si>
-    <t>有哪些 vue 性能优化的方法</t>
-  </si>
-  <si>
-    <t>如何查看前端项目中 node modules 或特定文件夹的体积</t>
-  </si>
-  <si>
-    <t>有哪些前端网站性能优化的关键点</t>
-  </si>
-  <si>
-    <t>如何禁止别人调试前端页面代码
-前端页面中，如何禁止用户打开浏览器控制台</t>
-  </si>
-  <si>
-    <t>CSS 优化和提高性能的方法有哪些</t>
-  </si>
-  <si>
-    <t>在前端项目中有做过性能优化吗?请分享一些常见的性能优化措施和实践经验</t>
-  </si>
-  <si>
-    <t>随着 http2 的发展，webpack 有没有更好的打包方案</t>
-  </si>
-  <si>
-    <t>网站性能优化都有哪些点</t>
-  </si>
-  <si>
-    <t>performance API 中什么指标可以衡量首屏时间</t>
-  </si>
-  <si>
-    <t>你使用过哪些前端性能分析工具</t>
-  </si>
-  <si>
-    <t>常见配置原理</t>
-  </si>
-  <si>
-    <t>什么是webpack的热更新（Hot Module Replacement）
-原理是什么
-在使用 Vue CLl 开发 Vue 项目时，自动刷新页面的原理是什么
-Express 中如何实现应用的热更新</t>
-  </si>
-  <si>
-    <t>Webpack的Tree Shaking原理
-什么情况下会导致 webpack treeShaking 失效
-什么是 vue 3 的 Tree-shaking 特性?有什么作用
-对于已经 import 但未实际使用的模块使用 webpack 还会对它打包吗
-介绍一下 webpack4 中的 tree-shaking 的工作流程</t>
-  </si>
-  <si>
-    <t>ESLint概念和原理</t>
-  </si>
-  <si>
-    <t>什么是 AST?它在前端的应用场景有哪些
-在 babel 编译为低版本 ES 时，为何能够编译可选链之类语法，但无法编译 API
-Babel 概念和原理</t>
-  </si>
-  <si>
-    <t>babel 是如何对 class 进行编译的
-解释一下 babel-polyfill 的作用是什么</t>
-  </si>
-  <si>
-    <t>webpack 是如何给 web 应用注入环境变量的，说说它的原理</t>
-  </si>
-  <si>
-    <t>说说webpack proxy工作原理，它为什么能解决跨域
-Webpack 代理怎么做</t>
-  </si>
-  <si>
-    <t>webpack-dev-server 是如何启动并运行的
-dev-server 是怎么跑起来的， dev-server实现原理</t>
-  </si>
-  <si>
-    <t>Webpack 打包时 Hash 码是怎么生成的？随机值存在一样的情况，如何避免</t>
-  </si>
-  <si>
-    <t>为什么 vue 写组件时可以放在 .vue 文件里?可以使用其他文件后缀吗</t>
-  </si>
-  <si>
-    <t>Vue Router 的懒加载如何实现
-React 中的路由懒加载是什么?原理是什么</t>
-  </si>
-  <si>
-    <t>什么是vue-loader，它有什么作用
-vue-loader的实现原理</t>
-  </si>
-  <si>
-    <t>React、React-dom 和 babel 的作用分别是什么</t>
-  </si>
-  <si>
-    <t>vue 打包后最终生成的文件有哪些</t>
-  </si>
-  <si>
-    <t>Code Splitting 的原理是什么
-webpack 中的 code spliting 是如何动态加载 chunk 的</t>
-  </si>
-  <si>
-    <t>SourceMap 原理
-跟 Mainfest 的区别</t>
-  </si>
-  <si>
-    <t>Mainfest 文件是什么，有什么用</t>
-  </si>
-  <si>
-    <t>文件监听是什么，怎么用，原理是什么
-跟热更新的区别</t>
-  </si>
-  <si>
-    <t>webpack内部原理</t>
-  </si>
-  <si>
-    <t>webpack loader 和 plugin 实现原理
-如何编写自定义的 Webpack Loader 或 Plugin 插件</t>
-  </si>
-  <si>
-    <t>为什么webpack可以通过文件打包，让浏览器可以支持 CommonJS 规范</t>
-  </si>
-  <si>
-    <t>如何使用 Webpack 实现异步加载
-webpack  如何做异步加载, 异步加载的原理</t>
-  </si>
-  <si>
-    <t>webpack的构建流程
-Webpack 的打包构建流程是什么
-webpack 的构建/打包流程是什么
-Webpack 的核心原理是什么</t>
-  </si>
-  <si>
-    <t>Import 和 CommonJS 在 webpack 打包过程中有什么不同
-Webpack打包过程中，lmport 和 CommonJs 有什么区别</t>
-  </si>
-  <si>
-    <t>说一下 webpack4.x 模块化加载原理?(CommonJS、ES6 module、动态加载)
-webpack 能动态加载 require 引入的模块吗</t>
-  </si>
-  <si>
-    <t>Webpack 支持哪些脚本模块规范</t>
-  </si>
-  <si>
-    <t>说一下 webpack 与 gulp 的区别（源码角度）</t>
-  </si>
-  <si>
-    <t>使用 import 时，webpack 对 node_modules 里的依赖会做什么</t>
-  </si>
-  <si>
-    <t>Webpack 做了什么？使用 webpack 构建时有无做一些自定义操作</t>
-  </si>
-  <si>
-    <t>请说出前端框架设计模式(MVVM 或 MVP 又或 MVC)的含义以及原理</t>
+    <t>2025.02.26- 1天</t>
   </si>
   <si>
     <t>你知道哪些模块化标准，说下 cjs 和 esmodule 的区别
@@ -511,6 +91,435 @@
 ES6 模块和 CommonJs 模块在 Node.js 中有什么区别
 前端打包时 cjs、es、umd 模块有何不同
 export 和 export default 的区别是什么</t>
+  </si>
+  <si>
+    <t>2025.02.27~ x天</t>
+  </si>
+  <si>
+    <t>webpack内部原理</t>
+  </si>
+  <si>
+    <t>基础含义和配置</t>
+  </si>
+  <si>
+    <t>webpack基础配置有哪些/核心概念都有哪些</t>
+  </si>
+  <si>
+    <t>Webpack 有哪些常见配置</t>
+  </si>
+  <si>
+    <t>Webpack 中的运行时 chunk 是什么
+webpack 的 runtime 做了什么事情
+在项目工程中，如何打包和加载这个 运行时 chunk</t>
+  </si>
+  <si>
+    <t>使用过 哪些常见的 Loader 和 Plugin</t>
+  </si>
+  <si>
+    <t>说说webpack中常见的Plugin，解决了什么问题</t>
+  </si>
+  <si>
+    <t>说说webpack中常见的Loader，解决了什么问题
+loader的作用是什么</t>
+  </si>
+  <si>
+    <t>如何保证众多Loader按照想要的顺序执行</t>
+  </si>
+  <si>
+    <t>Webpack的Source Map是什么
+如何配置生成Source Map
+什么是Source map？如何使用</t>
+  </si>
+  <si>
+    <t>webpack 中的 externals 作用是什么</t>
+  </si>
+  <si>
+    <t>怎么使用 webpack，将 JS 文件中的 css 提取到单独的样式文件中</t>
+  </si>
+  <si>
+    <t>Webpack 怎么配置多入口应用， 并实现公共依赖的提取</t>
+  </si>
+  <si>
+    <t>为什么要使用babel编译，可以达到什么效果
+在webpack内怎么配置，实现使用 babel-loader 来编译 tsx 文件
+使用 babel-loader 会有哪些问题，可以怎样优化</t>
+  </si>
+  <si>
+    <t>webpack 中的 webpack-dev-server 有什么作用</t>
+  </si>
+  <si>
+    <t>webpack 中的 webpack-dev-server 为什么不适用于线上环境</t>
+  </si>
+  <si>
+    <t>如何修改 webpack-dev-server 的端口</t>
+  </si>
+  <si>
+    <t>对于一个使用 Webpack 的项目，如果需要直接通过 script 标签引入第三方的资源，应该怎么处理</t>
+  </si>
+  <si>
+    <t>Webpack 如果使用了 hash 命名，是否每次都会重新生成 hash? 简单说下 Webpack 的几种 hash 策略
+Chunkhash和Contenthash区别
+什么是文件指纹？文件指纹有什么作用？怎么用
+webpack 在打包时，给生成的文件名上添加的 hash码，是如何生成的</t>
+  </si>
+  <si>
+    <t>说下 Webpack Runtime 和 Manifest 代码的作用</t>
+  </si>
+  <si>
+    <t>说下你对 ESLint 的了解？ 如何使用
+简述下 eslint 的作用</t>
+  </si>
+  <si>
+    <t>webpack 中 css-loader 和 style-loader 的区别，file-loader 和 url-loader 的区别</t>
+  </si>
+  <si>
+    <t>如何用webpack处理内联CSS</t>
+  </si>
+  <si>
+    <t>如何用localStoragewebpack 离线缓存静态资源
+如何使用 Webpack 和 LocalStorage 实现静态资源的离线缓存</t>
+  </si>
+  <si>
+    <t>A、B 两个条件组件，如何做到 webpack 只打包条件为 true 的组件，false 的组件不打包
+如何在 Webpack 中实现条件组件的按需打包</t>
+  </si>
+  <si>
+    <t>import { Button } from 'antd'，打包的时候只打包 button，分模块加载，是怎么做到的
+如何在 Webpack 中实现按需加载 antd 的组件(如Button)
+按需加载如何实现，原理是什么</t>
+  </si>
+  <si>
+    <t>webpack 如何配 sass，需要配哪些 loader，配 css 需要哪些 loader
+如何配置 Webpack 以支持 Sass 编译?需要使用哪些Loade</t>
+  </si>
+  <si>
+    <t>如何利用 Webpack将 JS、CSS、HTML 单独打包成一个文件
+如何配置把 js、css、html 单独打包成一个文件</t>
+  </si>
+  <si>
+    <t>如何实现webpack的分模块打包（多入口）
+使用 webpack 如何分包</t>
+  </si>
+  <si>
+    <t>一个活动项目里包含多个活动，Webpack 如何实现单独打包某个活动</t>
+  </si>
+  <si>
+    <t>请说明 JavaScript 进行压缩、合并、打包实现的原理是什么？为什么需要压缩、合并、打包？分别列出一种常用工具或插件</t>
+  </si>
+  <si>
+    <t>webpack 分包的方式有哪些
+前端如何使用 Webpack 进行高效分包优化
+如何在 WebPack 中代码分割/提取一个公共模块</t>
+  </si>
+  <si>
+    <t>介绍一下 webpack scope hoisting</t>
+  </si>
+  <si>
+    <t>具体说一下 splitchunksplugin 的使用场景及使用方法</t>
+  </si>
+  <si>
+    <t>如何实现 webpack 持久化缓存
+使用 webpack 打包时，如何更好地利用 long term cache
+长缓存、持久化缓存</t>
+  </si>
+  <si>
+    <t>前端项目中资源的缓存配置策略有哪些</t>
+  </si>
+  <si>
+    <t>如何在 Webpack 中切换开发环境和生产环境</t>
+  </si>
+  <si>
+    <t>webpack 配置如何实现开发环境不使用 cdn、生产环境使用 cdn</t>
+  </si>
+  <si>
+    <t>如何使用 Webpack 解决开发环境中的跨域问题</t>
+  </si>
+  <si>
+    <t>如何使用 webpack-dev-server 监控文件编译</t>
+  </si>
+  <si>
+    <t>Webpack的html-webpack-plugin 插件有什么作用
+使用 html-webpack-plugin 时找不到指定的 template 文件怎么办</t>
+  </si>
+  <si>
+    <t>Webpack 中，常见的图片处理加载器有哪些
+webpack 中是如何处理图片的</t>
+  </si>
+  <si>
+    <t>Webpack 中的 publicPath 有什么作用</t>
+  </si>
+  <si>
+    <t>如何使用 Webpack 配置单页应用和多页应用</t>
+  </si>
+  <si>
+    <t>Webpack 命令中的 --config 选项有什么作用</t>
+  </si>
+  <si>
+    <t>Webpack 抽取公共文件是怎么配置的
+如何在 Webpack 中配置公共文件的抽取</t>
+  </si>
+  <si>
+    <t>如何在 React 项目中引入图片?哪种方式更好</t>
+  </si>
+  <si>
+    <t>如何在 React 项目中开启生产模式
+如何在 React 中让编译器生成生产环境版本</t>
+  </si>
+  <si>
+    <t>Vue 项目中 assets 和 static 的区别是什么</t>
+  </si>
+  <si>
+    <t>如何解决 vue 打包后静态资源图片失效的问题</t>
+  </si>
+  <si>
+    <t>JavaScript 脚本延迟加载的方式有哪些
+HTML 的 script 标签中 defer 和 async 有什么区别</t>
+  </si>
+  <si>
+    <t>如何在 React 中根据不同的环境打包不同的域名</t>
+  </si>
+  <si>
+    <t>如何在 React 项目中去除生产环境中的 sourcemap</t>
+  </si>
+  <si>
+    <t>CSS 预处理器/后处理器是什么?为什么要使用它</t>
+  </si>
+  <si>
+    <t>前端项目中如何配置 HTTP 缓存机制
+现代前端应用应如何配置 HTTP 缓存机制</t>
+  </si>
+  <si>
+    <t>当使用 Babel 打包的 JavaScript 文件中包含 JSX 语法时报错时，如何解决</t>
+  </si>
+  <si>
+    <t>在 window 对象中，模块间依赖关系由文件加载顺序决定，这种模块组织方式有哪些缺点</t>
+  </si>
+  <si>
+    <t>如何将前端项目的 CommonJs 模块转化为 ESM 模块</t>
+  </si>
+  <si>
+    <t>如何在 React 中动态导入组件
+webpack 如何实现动态导入</t>
+  </si>
+  <si>
+    <t>在 React 中如何引用第三方插件，比如 Axios</t>
+  </si>
+  <si>
+    <t>打包器(webpack/rollup) 如何将打包后的 js 资源注入 html 中
+打包器(webpack/rollup) 如何加载 json、image 等非 Javascript 资源
+打包器(webpack/rollup) 如何加载 style 样式资源</t>
+  </si>
+  <si>
+    <t>webpack 中是如何处理 new URL 资源的</t>
+  </si>
+  <si>
+    <t>webpack5</t>
+  </si>
+  <si>
+    <t>webpack 5 的主要升级点有哪些
+webpack5 的新特性</t>
+  </si>
+  <si>
+    <t>说说你对 webpack5 模块联邦的了解</t>
+  </si>
+  <si>
+    <t>性能优化</t>
+  </si>
+  <si>
+    <t>什么是Code Splitting，如何实现</t>
+  </si>
+  <si>
+    <t>如何提高webpack的打包速度/构建速度
+Webpack 为什么慢，如何进行优化</t>
+  </si>
+  <si>
+    <t>如何分析前端打包体积
+如何减少打包后的代码体积
+Webpack 打包出来的体积太大，如何优化体积
+减少代码体积方案</t>
+  </si>
+  <si>
+    <t>如何配置实现 treeShaking</t>
+  </si>
+  <si>
+    <t>如何借助webpack 来优化前端性能
+在前端开发中，如何优化网页的加载性能和渲染性能?请提供一些常见的优化策略和技巧</t>
+  </si>
+  <si>
+    <t>webpack 做过哪些优化，开发效率方面、打包策略方面等等
+如何使用webpack优化产出代码
+说一下项目里有做过哪些 webpack 上的优化</t>
+  </si>
+  <si>
+    <t>如何优化 Webpack 打包 Vue 应用的速度
+如何使用 Webpack 实现 Vue 项目的打包任务</t>
+  </si>
+  <si>
+    <t>用 Webpack 打包 React 项目时，如何减小生成的JavaScript 文件大小</t>
+  </si>
+  <si>
+    <t>如何压缩前端项目中的 JavaScript 文件大小/  JS体积
+如何进行前端代码的打包和压缩</t>
+  </si>
+  <si>
+    <t>前端开发中如何优化网络请求和资源加载?具体怎么实现</t>
+  </si>
+  <si>
+    <t>开发环境热更新的优化方式
+如何优化前端开发环境的热更新效率
+前端开发中的 Live-Reload 自动刷新与 HMR 热模块替换有什么区别</t>
+  </si>
+  <si>
+    <t>如何解决 Vue 打包时 vendor 文件过大的问题</t>
+  </si>
+  <si>
+    <t>如何解决前端 SPA 应用首屏加载速度慢的问题
+webpack 怎么进行首屏加载的优化</t>
+  </si>
+  <si>
+    <t>有哪些 vue 性能优化的方法</t>
+  </si>
+  <si>
+    <t>如何查看前端项目中 node modules 或特定文件夹的体积</t>
+  </si>
+  <si>
+    <t>有哪些前端网站性能优化的关键点</t>
+  </si>
+  <si>
+    <t>如何禁止别人调试前端页面代码
+前端页面中，如何禁止用户打开浏览器控制台</t>
+  </si>
+  <si>
+    <t>CSS 优化和提高性能的方法有哪些</t>
+  </si>
+  <si>
+    <t>在前端项目中有做过性能优化吗?请分享一些常见的性能优化措施和实践经验</t>
+  </si>
+  <si>
+    <t>随着 http2 的发展，webpack 有没有更好的打包方案</t>
+  </si>
+  <si>
+    <t>网站性能优化都有哪些点</t>
+  </si>
+  <si>
+    <t>performance API 中什么指标可以衡量首屏时间</t>
+  </si>
+  <si>
+    <t>你使用过哪些前端性能分析工具</t>
+  </si>
+  <si>
+    <t>常见配置原理</t>
+  </si>
+  <si>
+    <t>什么是webpack的热更新（Hot Module Replacement）
+原理是什么
+在使用 Vue CLl 开发 Vue 项目时，自动刷新页面的原理是什么
+Express 中如何实现应用的热更新</t>
+  </si>
+  <si>
+    <t>Webpack的Tree Shaking原理
+什么情况下会导致 webpack treeShaking 失效
+什么是 vue 3 的 Tree-shaking 特性?有什么作用
+对于已经 import 但未实际使用的模块使用 webpack 还会对它打包吗
+介绍一下 webpack4 中的 tree-shaking 的工作流程</t>
+  </si>
+  <si>
+    <t>ESLint概念和原理</t>
+  </si>
+  <si>
+    <t>什么是 AST?它在前端的应用场景有哪些
+在 babel 编译为低版本 ES 时，为何能够编译可选链之类语法，但无法编译 API
+Babel 概念和原理</t>
+  </si>
+  <si>
+    <t>babel 是如何对 class 进行编译的
+解释一下 babel-polyfill 的作用是什么</t>
+  </si>
+  <si>
+    <t>webpack 是如何给 web 应用注入环境变量的，说说它的原理</t>
+  </si>
+  <si>
+    <t>说说webpack proxy工作原理，它为什么能解决跨域
+Webpack 代理怎么做</t>
+  </si>
+  <si>
+    <t>webpack-dev-server 是如何启动并运行的
+dev-server 是怎么跑起来的， dev-server实现原理</t>
+  </si>
+  <si>
+    <t>Webpack 打包时 Hash 码是怎么生成的？随机值存在一样的情况，如何避免</t>
+  </si>
+  <si>
+    <t>为什么 vue 写组件时可以放在 .vue 文件里?可以使用其他文件后缀吗</t>
+  </si>
+  <si>
+    <t>Vue Router 的懒加载如何实现
+React 中的路由懒加载是什么?原理是什么</t>
+  </si>
+  <si>
+    <t>什么是vue-loader，它有什么作用
+vue-loader的实现原理</t>
+  </si>
+  <si>
+    <t>React、React-dom 和 babel 的作用分别是什么</t>
+  </si>
+  <si>
+    <t>vue 打包后最终生成的文件有哪些</t>
+  </si>
+  <si>
+    <t>Code Splitting 的原理是什么
+webpack 中的 code spliting 是如何动态加载 chunk 的</t>
+  </si>
+  <si>
+    <t>SourceMap 原理
+跟 Mainfest 的区别</t>
+  </si>
+  <si>
+    <t>Mainfest 文件是什么，有什么用</t>
+  </si>
+  <si>
+    <t>文件监听是什么，怎么用，原理是什么
+跟热更新的区别</t>
+  </si>
+  <si>
+    <t>webpack loader 和 plugin 实现原理
+如何编写自定义的 Webpack Loader 或 Plugin 插件</t>
+  </si>
+  <si>
+    <t>为什么webpack可以通过文件打包，让浏览器可以支持 CommonJS 规范</t>
+  </si>
+  <si>
+    <t>如何使用 Webpack 实现异步加载
+webpack  如何做异步加载, 异步加载的原理</t>
+  </si>
+  <si>
+    <t>webpack的构建流程
+Webpack 的打包构建流程是什么
+webpack 的构建/打包流程是什么
+Webpack 的核心原理是什么</t>
+  </si>
+  <si>
+    <t>Import 和 CommonJS 在 webpack 打包过程中有什么不同
+Webpack打包过程中，lmport 和 CommonJs 有什么区别</t>
+  </si>
+  <si>
+    <t>说一下 webpack4.x 模块化加载原理?(CommonJS、ES6 module、动态加载)
+webpack 能动态加载 require 引入的模块吗</t>
+  </si>
+  <si>
+    <t>Webpack 支持哪些脚本模块规范</t>
+  </si>
+  <si>
+    <t>说一下 webpack 与 gulp 的区别（源码角度）</t>
+  </si>
+  <si>
+    <t>使用 import 时，webpack 对 node_modules 里的依赖会做什么</t>
+  </si>
+  <si>
+    <t>Webpack 做了什么？使用 webpack 构建时有无做一些自定义操作</t>
+  </si>
+  <si>
+    <t>请说出前端框架设计模式(MVVM 或 MVP 又或 MVC)的含义以及原理</t>
   </si>
   <si>
     <t>什么是 Webpack 的生命周期
@@ -2033,10 +2042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2093,40 +2102,62 @@
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="67" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
+    <row r="5" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="145" customHeight="1" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A7" s="5"/>
@@ -2138,7 +2169,7 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -2148,7 +2179,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
@@ -2160,7 +2191,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
         <v>2</v>
@@ -2172,7 +2203,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
@@ -2184,7 +2215,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
@@ -2194,12 +2225,12 @@
       <c r="E12" s="6"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2208,7 +2239,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6">
         <v>5</v>
@@ -2220,34 +2251,34 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2256,7 +2287,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2268,7 +2299,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2278,24 +2309,24 @@
       <c r="E19" s="6"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="76" customHeight="1" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="76" customHeight="1" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2304,7 +2335,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2316,7 +2347,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2328,7 +2359,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -2338,45 +2369,45 @@
       <c r="E24" s="6"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="25" s="1" customFormat="1" ht="105" customHeight="1" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="105" customHeight="1" spans="1:6">
+    <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="27" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B28" s="6">
         <v>2</v>
@@ -2388,7 +2419,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A29" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
@@ -2398,9 +2429,9 @@
       <c r="E29" s="6"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="30" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A30" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -2410,9 +2441,9 @@
       <c r="E30" s="6"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
       <c r="A31" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
@@ -2422,33 +2453,33 @@
       <c r="E31" s="6"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
+    <row r="32" s="1" customFormat="1" ht="95" customHeight="1" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B32" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="95" customHeight="1" spans="1:6">
+    <row r="33" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B33" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B34" s="6">
         <v>2</v>
@@ -2458,12 +2489,12 @@
       <c r="E34" s="6"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B35" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2472,10 +2503,10 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A36" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B36" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2484,34 +2515,34 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A37" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="38" s="1" customFormat="1" ht="68" customHeight="1" spans="1:6">
       <c r="A38" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B38" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="68" customHeight="1" spans="1:6">
+    <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A39" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B39" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2520,34 +2551,34 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A40" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="41" s="1" customFormat="1" ht="64" customHeight="1" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B41" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="64" customHeight="1" spans="1:6">
+    <row r="42" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A42" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B42" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2556,7 +2587,7 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -2568,7 +2599,7 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A44" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -2580,7 +2611,7 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A45" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -2592,7 +2623,7 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A46" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B46" s="6">
         <v>1</v>
@@ -2602,21 +2633,21 @@
       <c r="E46" s="6"/>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="47" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A47" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="6"/>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="48" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A48" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B48" s="6">
         <v>2</v>
@@ -2628,10 +2659,10 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A49" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B49" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2640,7 +2671,7 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A50" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
@@ -2652,7 +2683,7 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A51" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -2664,10 +2695,10 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A52" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2676,10 +2707,10 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B53" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2688,10 +2719,10 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A54" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2700,10 +2731,10 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A55" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2712,7 +2743,7 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A56" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B56" s="6">
         <v>1</v>
@@ -2722,24 +2753,24 @@
       <c r="E56" s="6"/>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="57" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A57" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="58" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A58" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B58" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2748,7 +2779,7 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A59" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B59" s="6">
         <v>1</v>
@@ -2760,7 +2791,7 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A60" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B60" s="6">
         <v>1</v>
@@ -2770,24 +2801,24 @@
       <c r="E60" s="6"/>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="61" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A61" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="62" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A62" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B62" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2796,7 +2827,7 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A63" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
@@ -2808,7 +2839,7 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A64" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B64" s="6">
         <v>1</v>
@@ -2820,10 +2851,10 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A65" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2832,34 +2863,34 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A66" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B66" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="67" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A67" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B67" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="6"/>
       <c r="F67" s="17"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
+    <row r="68" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A68" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B68" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2867,41 +2898,41 @@
       <c r="F68" s="17"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A69" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="6">
-        <v>1</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A71" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="70" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A70" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A71" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A72" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2909,101 +2940,101 @@
       <c r="F72" s="17"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A73" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="6">
-        <v>1</v>
-      </c>
+      <c r="A73" s="7"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="6"/>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A74" s="7"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="17"/>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A75" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="74" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A75" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="6">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A76" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="6"/>
       <c r="F76" s="17"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+    <row r="77" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A77" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="6"/>
       <c r="F77" s="17"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
+    <row r="78" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A78" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
       <c r="F78" s="17"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="79" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
       <c r="A79" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="6"/>
       <c r="F79" s="17"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
+    <row r="80" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
       <c r="A80" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="6"/>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
+    <row r="81" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A81" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3012,10 +3043,10 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A82" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3024,10 +3055,10 @@
     </row>
     <row r="83" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A83" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3036,58 +3067,58 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A84" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="6"/>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="85" s="1" customFormat="1" ht="59" customHeight="1" spans="1:6">
       <c r="A85" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="6"/>
       <c r="F85" s="17"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="59" customHeight="1" spans="1:6">
+    <row r="86" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A86" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
       <c r="F86" s="17"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+    <row r="87" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A87" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="6"/>
       <c r="F87" s="17"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
+    <row r="88" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A88" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3096,7 +3127,7 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A89" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -3108,7 +3139,7 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A90" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -3120,10 +3151,10 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A91" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3132,10 +3163,10 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A92" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3144,7 +3175,7 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A93" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93" s="6">
         <v>1</v>
@@ -3156,7 +3187,7 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A94" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94" s="6">
         <v>1</v>
@@ -3168,7 +3199,7 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A95" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95" s="6">
         <v>1</v>
@@ -3180,7 +3211,7 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A96" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96" s="6">
         <v>1</v>
@@ -3192,7 +3223,7 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A97" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
@@ -3202,39 +3233,39 @@
       <c r="E97" s="6"/>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A98" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="6">
-        <v>1</v>
-      </c>
+    <row r="98" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A98" s="7"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="6"/>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A99" s="7"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="17"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A100" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="18"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="89" customHeight="1" spans="1:6">
+    <row r="99" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A99" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="89" customHeight="1" spans="1:6">
+      <c r="A100" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="6">
+        <v>11</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="110" customHeight="1" spans="1:6">
       <c r="A101" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B101" s="6">
         <v>11</v>
@@ -3244,24 +3275,24 @@
       <c r="E101" s="6"/>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="110" customHeight="1" spans="1:6">
+    <row r="102" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A102" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B102" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="6"/>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="103" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A103" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B103" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3270,58 +3301,58 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A104" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="6"/>
       <c r="F104" s="17"/>
     </row>
-    <row r="105" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
+    <row r="105" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A105" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B105" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="6"/>
       <c r="F105" s="17"/>
     </row>
-    <row r="106" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="106" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
       <c r="A106" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B106" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="6"/>
       <c r="F106" s="17"/>
     </row>
-    <row r="107" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
+    <row r="107" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A107" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B107" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="6"/>
       <c r="F107" s="17"/>
     </row>
-    <row r="108" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+    <row r="108" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A108" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B108" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3330,10 +3361,10 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A109" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B109" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3342,10 +3373,10 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A110" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B110" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3354,7 +3385,7 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A111" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B111" s="6">
         <v>2</v>
@@ -3366,10 +3397,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A112" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3378,7 +3409,7 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A113" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B113" s="6">
         <v>1</v>
@@ -3388,12 +3419,12 @@
       <c r="E113" s="6"/>
       <c r="F113" s="17"/>
     </row>
-    <row r="114" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="114" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A114" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B114" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3402,10 +3433,10 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A115" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B115" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3414,10 +3445,10 @@
     </row>
     <row r="116" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A116" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B116" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3426,10 +3457,10 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A117" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B117" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3437,12 +3468,8 @@
       <c r="F117" s="17"/>
     </row>
     <row r="118" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
-      <c r="A118" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="6">
-        <v>3</v>
-      </c>
+      <c r="A118" s="7"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="6"/>
@@ -3456,7 +3483,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+    <row r="120" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -3464,99 +3491,103 @@
       <c r="E120" s="6"/>
       <c r="F120" s="17"/>
     </row>
-    <row r="121" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A121" s="7"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="17"/>
-    </row>
-    <row r="122" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A122" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="18"/>
+    <row r="121" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A121" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="9"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="18"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A122" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="6">
+        <v>9</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="17"/>
     </row>
     <row r="123" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A123" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B123" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="6"/>
       <c r="F123" s="17"/>
     </row>
-    <row r="124" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="124" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A124" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B124" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="6"/>
       <c r="F124" s="17"/>
     </row>
-    <row r="125" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+    <row r="125" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
       <c r="A125" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B125" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="6"/>
       <c r="F125" s="17"/>
     </row>
-    <row r="126" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
+    <row r="126" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
       <c r="A126" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B126" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="6"/>
       <c r="F126" s="17"/>
     </row>
-    <row r="127" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
+    <row r="127" s="1" customFormat="1" ht="84" customHeight="1" spans="1:6">
       <c r="A127" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B127" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="6"/>
       <c r="F127" s="17"/>
     </row>
-    <row r="128" s="1" customFormat="1" ht="84" customHeight="1" spans="1:6">
+    <row r="128" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A128" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B128" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="6"/>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+    <row r="129" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A129" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B129" s="6">
         <v>1</v>
@@ -3566,12 +3597,12 @@
       <c r="E129" s="6"/>
       <c r="F129" s="17"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="130" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A130" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B130" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -3580,10 +3611,10 @@
     </row>
     <row r="131" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A131" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B131" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -3592,7 +3623,7 @@
     </row>
     <row r="132" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A132" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B132" s="6">
         <v>1</v>
@@ -3604,43 +3635,43 @@
     </row>
     <row r="133" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A133" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B133" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="6"/>
       <c r="F133" s="17"/>
     </row>
-    <row r="134" s="1" customFormat="1" ht="145" customHeight="1" spans="1:6">
+    <row r="134" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A134" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B134" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="6"/>
       <c r="F134" s="17"/>
     </row>
-    <row r="135" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="135" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A135" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B135" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="6"/>
       <c r="F135" s="17"/>
     </row>
-    <row r="136" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="136" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A136" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B136" s="6">
         <v>1</v>
@@ -3652,7 +3683,7 @@
     </row>
     <row r="137" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A137" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B137" s="6">
         <v>1</v>
@@ -3664,7 +3695,7 @@
     </row>
     <row r="138" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A138" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B138" s="6">
         <v>1</v>
@@ -3674,54 +3705,54 @@
       <c r="E138" s="6"/>
       <c r="F138" s="17"/>
     </row>
-    <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A139" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" s="6">
-        <v>1</v>
-      </c>
+    <row r="139" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A139" s="7"/>
+      <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="6"/>
       <c r="F139" s="17"/>
     </row>
-    <row r="140" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A140" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" s="6">
-        <v>1</v>
-      </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="17"/>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A141" s="7"/>
-      <c r="B141" s="6"/>
+    <row r="140" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A140" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="88" customHeight="1" spans="1:6">
+      <c r="A141" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="6">
+        <v>4</v>
+      </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="6"/>
       <c r="F141" s="17"/>
     </row>
-    <row r="142" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A142" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="18"/>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="88" customHeight="1" spans="1:6">
+    <row r="142" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A142" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" s="6">
+        <v>1</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="17"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A143" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B143" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -3730,7 +3761,7 @@
     </row>
     <row r="144" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A144" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B144" s="6">
         <v>1</v>
@@ -3742,10 +3773,10 @@
     </row>
     <row r="145" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A145" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B145" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -3754,7 +3785,7 @@
     </row>
     <row r="146" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A146" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B146" s="6">
         <v>1</v>
@@ -3766,10 +3797,10 @@
     </row>
     <row r="147" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A147" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B147" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -3778,7 +3809,7 @@
     </row>
     <row r="148" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A148" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B148" s="6">
         <v>1</v>
@@ -3790,7 +3821,7 @@
     </row>
     <row r="149" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A149" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B149" s="6">
         <v>1</v>
@@ -3802,10 +3833,10 @@
     </row>
     <row r="150" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A150" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B150" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -3814,7 +3845,7 @@
     </row>
     <row r="151" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A151" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B151" s="6">
         <v>1</v>
@@ -3826,10 +3857,10 @@
     </row>
     <row r="152" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A152" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B152" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -3838,7 +3869,7 @@
     </row>
     <row r="153" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A153" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B153" s="6">
         <v>1</v>
@@ -3850,7 +3881,7 @@
     </row>
     <row r="154" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A154" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B154" s="6">
         <v>1</v>
@@ -3862,7 +3893,7 @@
     </row>
     <row r="155" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A155" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B155" s="6">
         <v>1</v>
@@ -3874,7 +3905,7 @@
     </row>
     <row r="156" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A156" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B156" s="6">
         <v>1</v>
@@ -3886,7 +3917,7 @@
     </row>
     <row r="157" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A157" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B157" s="6">
         <v>1</v>
@@ -3898,7 +3929,7 @@
     </row>
     <row r="158" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A158" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B158" s="6">
         <v>1</v>
@@ -3910,7 +3941,7 @@
     </row>
     <row r="159" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A159" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B159" s="6">
         <v>1</v>
@@ -3922,7 +3953,7 @@
     </row>
     <row r="160" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A160" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B160" s="6">
         <v>1</v>
@@ -3934,7 +3965,7 @@
     </row>
     <row r="161" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A161" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B161" s="6">
         <v>1</v>
@@ -3946,7 +3977,7 @@
     </row>
     <row r="162" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A162" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B162" s="6">
         <v>1</v>
@@ -3958,7 +3989,7 @@
     </row>
     <row r="163" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A163" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B163" s="6">
         <v>1</v>
@@ -3970,7 +4001,7 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A164" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B164" s="6">
         <v>1</v>
@@ -3982,7 +4013,7 @@
     </row>
     <row r="165" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A165" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B165" s="6">
         <v>1</v>
@@ -3994,7 +4025,7 @@
     </row>
     <row r="166" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A166" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B166" s="6">
         <v>1</v>
@@ -4006,7 +4037,7 @@
     </row>
     <row r="167" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A167" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B167" s="6">
         <v>1</v>
@@ -4018,7 +4049,7 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A168" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B168" s="6">
         <v>1</v>
@@ -4030,7 +4061,7 @@
     </row>
     <row r="169" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A169" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B169" s="6">
         <v>1</v>
@@ -4042,7 +4073,7 @@
     </row>
     <row r="170" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A170" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B170" s="6">
         <v>1</v>
@@ -4054,7 +4085,7 @@
     </row>
     <row r="171" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A171" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B171" s="6">
         <v>1</v>
@@ -4066,7 +4097,7 @@
     </row>
     <row r="172" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A172" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B172" s="6">
         <v>1</v>
@@ -4078,7 +4109,7 @@
     </row>
     <row r="173" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A173" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B173" s="6">
         <v>1</v>
@@ -4090,7 +4121,7 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A174" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B174" s="6">
         <v>1</v>
@@ -4102,7 +4133,7 @@
     </row>
     <row r="175" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A175" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B175" s="6">
         <v>1</v>
@@ -4114,7 +4145,7 @@
     </row>
     <row r="176" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A176" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B176" s="6">
         <v>1</v>
@@ -4125,67 +4156,67 @@
       <c r="F176" s="17"/>
     </row>
     <row r="177" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A177" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" s="6">
-        <v>1</v>
-      </c>
+      <c r="A177" s="7"/>
+      <c r="B177" s="6"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="6"/>
       <c r="F177" s="17"/>
     </row>
-    <row r="178" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A178" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B178" s="6">
-        <v>1</v>
-      </c>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="17"/>
+    <row r="178" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A178" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="9">
+        <v>1</v>
+      </c>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="18"/>
     </row>
     <row r="179" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A179" s="7"/>
-      <c r="B179" s="6"/>
+      <c r="A179" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="6">
+        <v>2</v>
+      </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="6"/>
-      <c r="F179" s="17"/>
-    </row>
-    <row r="180" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A180" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B180" s="9">
-        <v>1</v>
-      </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="18"/>
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A180" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="6">
+        <v>2</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="17"/>
     </row>
     <row r="181" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A181" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B181" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="6"/>
-      <c r="F181" s="8"/>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="F181" s="17"/>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A182" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B182" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -4194,7 +4225,7 @@
     </row>
     <row r="183" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A183" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B183" s="6">
         <v>1</v>
@@ -4206,7 +4237,7 @@
     </row>
     <row r="184" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A184" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B184" s="6">
         <v>1</v>
@@ -4217,53 +4248,53 @@
       <c r="F184" s="17"/>
     </row>
     <row r="185" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A185" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B185" s="6">
-        <v>1</v>
-      </c>
+      <c r="A185" s="7"/>
+      <c r="B185" s="6"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="6"/>
       <c r="F185" s="17"/>
     </row>
-    <row r="186" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A186" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B186" s="6">
-        <v>1</v>
-      </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="17"/>
+    <row r="186" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A186" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" s="9"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="18"/>
     </row>
     <row r="187" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A187" s="7"/>
-      <c r="B187" s="6"/>
+      <c r="A187" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="6">
+        <v>1</v>
+      </c>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="6"/>
-      <c r="F187" s="17"/>
-    </row>
-    <row r="188" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A188" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B188" s="9"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="9"/>
-      <c r="F188" s="18"/>
+      <c r="F187" s="8"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A188" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="6">
+        <v>1</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="8"/>
     </row>
     <row r="189" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A189" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B189" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -4271,50 +4302,50 @@
       <c r="F189" s="8"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A190" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B190" s="6">
-        <v>1</v>
-      </c>
+      <c r="A190" s="7"/>
+      <c r="B190" s="6"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="6"/>
-      <c r="F190" s="8"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A191" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B191" s="6">
+      <c r="F190" s="17"/>
+    </row>
+    <row r="191" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A191" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="9"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="18"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
+      <c r="A192" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="6">
         <v>2</v>
       </c>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="8"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A192" s="7"/>
-      <c r="B192" s="6"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="6"/>
-      <c r="F192" s="17"/>
-    </row>
-    <row r="193" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A193" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B193" s="9"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="9"/>
-      <c r="F193" s="18"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A193" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="6">
+        <v>1</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="8"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A194" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B194" s="6">
         <v>2</v>
@@ -4326,7 +4357,7 @@
     </row>
     <row r="195" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A195" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B195" s="6">
         <v>1</v>
@@ -4336,123 +4367,123 @@
       <c r="E195" s="6"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="196" s="1" customFormat="1" ht="80" customHeight="1" spans="1:6">
       <c r="A196" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B196" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="6"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="197" s="1" customFormat="1" ht="74" customHeight="1" spans="1:6">
       <c r="A197" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B197" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="6"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" s="1" customFormat="1" ht="80" customHeight="1" spans="1:6">
+    <row r="198" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A198" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B198" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="6"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="74" customHeight="1" spans="1:6">
-      <c r="A199" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B199" s="6">
-        <v>3</v>
-      </c>
+    <row r="199" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A199" s="7"/>
+      <c r="B199" s="6"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="6"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A200" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B200" s="6">
-        <v>2</v>
-      </c>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="8"/>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A201" s="7"/>
-      <c r="B201" s="6"/>
+    <row r="200" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A200" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" s="9"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="18"/>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A201" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" s="6">
+        <v>3</v>
+      </c>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="6"/>
-      <c r="F201" s="8"/>
-    </row>
-    <row r="202" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A202" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B202" s="9"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="9"/>
-      <c r="F202" s="18"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="F201" s="17"/>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A202" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="6">
+        <v>1</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="8"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="90" customHeight="1" spans="1:6">
       <c r="A203" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B203" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="6"/>
-      <c r="F203" s="17"/>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F203" s="8"/>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A204" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B204" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="6"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" s="1" customFormat="1" ht="90" customHeight="1" spans="1:6">
+    <row r="205" s="1" customFormat="1" ht="81" customHeight="1" spans="1:6">
       <c r="A205" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B205" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="6"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="206" s="1" customFormat="1" ht="75" customHeight="1" spans="1:6">
       <c r="A206" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B206" s="6">
         <v>2</v>
@@ -4462,36 +4493,36 @@
       <c r="E206" s="6"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" s="1" customFormat="1" ht="81" customHeight="1" spans="1:6">
+    <row r="207" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A207" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B207" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="6"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" s="1" customFormat="1" ht="75" customHeight="1" spans="1:6">
+    <row r="208" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A208" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B208" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="6"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="209" s="1" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A209" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B209" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
@@ -4500,7 +4531,7 @@
     </row>
     <row r="210" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A210" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B210" s="6">
         <v>1</v>
@@ -4510,12 +4541,12 @@
       <c r="E210" s="6"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" s="1" customFormat="1" ht="63" customHeight="1" spans="1:6">
+    <row r="211" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A211" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B211" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
@@ -4524,7 +4555,7 @@
     </row>
     <row r="212" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A212" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B212" s="6">
         <v>1</v>
@@ -4536,10 +4567,10 @@
     </row>
     <row r="213" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A213" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B213" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
@@ -4548,7 +4579,7 @@
     </row>
     <row r="214" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A214" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B214" s="6">
         <v>1</v>
@@ -4560,7 +4591,7 @@
     </row>
     <row r="215" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A215" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B215" s="6">
         <v>1</v>
@@ -4572,7 +4603,7 @@
     </row>
     <row r="216" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A216" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B216" s="6">
         <v>1</v>
@@ -4584,7 +4615,7 @@
     </row>
     <row r="217" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A217" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B217" s="6">
         <v>1</v>
@@ -4596,7 +4627,7 @@
     </row>
     <row r="218" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A218" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B218" s="6">
         <v>1</v>
@@ -4608,7 +4639,7 @@
     </row>
     <row r="219" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A219" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B219" s="6">
         <v>1</v>
@@ -4620,7 +4651,7 @@
     </row>
     <row r="220" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A220" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B220" s="6">
         <v>1</v>
@@ -4632,7 +4663,7 @@
     </row>
     <row r="221" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A221" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B221" s="6">
         <v>1</v>
@@ -4644,7 +4675,7 @@
     </row>
     <row r="222" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A222" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B222" s="6">
         <v>1</v>
@@ -4656,7 +4687,7 @@
     </row>
     <row r="223" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A223" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B223" s="6">
         <v>1</v>
@@ -4668,7 +4699,7 @@
     </row>
     <row r="224" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A224" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B224" s="6">
         <v>1</v>
@@ -4680,7 +4711,7 @@
     </row>
     <row r="225" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A225" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B225" s="6">
         <v>1</v>
@@ -4692,7 +4723,7 @@
     </row>
     <row r="226" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A226" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B226" s="6">
         <v>1</v>
@@ -4704,7 +4735,7 @@
     </row>
     <row r="227" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A227" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B227" s="6">
         <v>1</v>
@@ -4716,7 +4747,7 @@
     </row>
     <row r="228" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A228" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B228" s="6">
         <v>1</v>
@@ -4728,7 +4759,7 @@
     </row>
     <row r="229" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A229" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B229" s="6">
         <v>1</v>
@@ -4740,7 +4771,7 @@
     </row>
     <row r="230" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A230" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B230" s="6">
         <v>1</v>
@@ -4752,7 +4783,7 @@
     </row>
     <row r="231" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A231" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B231" s="6">
         <v>1</v>
@@ -4764,7 +4795,7 @@
     </row>
     <row r="232" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A232" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B232" s="6">
         <v>1</v>
@@ -4776,7 +4807,7 @@
     </row>
     <row r="233" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A233" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B233" s="6">
         <v>1</v>
@@ -4788,7 +4819,7 @@
     </row>
     <row r="234" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A234" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B234" s="6">
         <v>1</v>
@@ -4800,7 +4831,7 @@
     </row>
     <row r="235" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A235" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B235" s="6">
         <v>1</v>
@@ -4812,7 +4843,7 @@
     </row>
     <row r="236" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A236" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B236" s="6">
         <v>1</v>
@@ -4824,7 +4855,7 @@
     </row>
     <row r="237" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A237" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B237" s="6">
         <v>1</v>
@@ -4836,7 +4867,7 @@
     </row>
     <row r="238" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A238" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B238" s="6">
         <v>1</v>
@@ -4848,7 +4879,7 @@
     </row>
     <row r="239" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A239" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B239" s="6">
         <v>1</v>
@@ -4860,7 +4891,7 @@
     </row>
     <row r="240" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A240" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B240" s="6">
         <v>1</v>
@@ -4872,7 +4903,7 @@
     </row>
     <row r="241" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A241" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B241" s="6">
         <v>1</v>
@@ -4884,7 +4915,7 @@
     </row>
     <row r="242" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A242" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B242" s="6">
         <v>1</v>
@@ -4896,7 +4927,7 @@
     </row>
     <row r="243" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A243" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B243" s="6">
         <v>1</v>
@@ -4908,7 +4939,7 @@
     </row>
     <row r="244" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A244" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B244" s="6">
         <v>1</v>
@@ -4920,7 +4951,7 @@
     </row>
     <row r="245" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A245" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B245" s="6">
         <v>1</v>
@@ -4932,7 +4963,7 @@
     </row>
     <row r="246" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A246" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B246" s="6">
         <v>1</v>
@@ -4944,7 +4975,7 @@
     </row>
     <row r="247" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A247" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B247" s="6">
         <v>1</v>
@@ -4956,7 +4987,7 @@
     </row>
     <row r="248" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A248" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B248" s="6">
         <v>1</v>
@@ -4968,7 +4999,7 @@
     </row>
     <row r="249" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A249" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B249" s="6">
         <v>1</v>
@@ -4980,7 +5011,7 @@
     </row>
     <row r="250" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A250" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B250" s="6">
         <v>1</v>
@@ -4992,7 +5023,7 @@
     </row>
     <row r="251" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A251" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B251" s="6">
         <v>1</v>
@@ -5004,7 +5035,7 @@
     </row>
     <row r="252" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A252" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B252" s="6">
         <v>1</v>
@@ -5016,7 +5047,7 @@
     </row>
     <row r="253" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A253" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B253" s="6">
         <v>1</v>
@@ -5028,7 +5059,7 @@
     </row>
     <row r="254" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A254" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B254" s="6">
         <v>1</v>
@@ -5040,7 +5071,7 @@
     </row>
     <row r="255" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A255" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B255" s="6">
         <v>1</v>
@@ -5052,7 +5083,7 @@
     </row>
     <row r="256" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A256" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B256" s="6">
         <v>1</v>
@@ -5064,7 +5095,7 @@
     </row>
     <row r="257" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A257" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B257" s="6">
         <v>1</v>
@@ -5076,7 +5107,7 @@
     </row>
     <row r="258" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A258" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B258" s="6">
         <v>1</v>
@@ -5086,51 +5117,51 @@
       <c r="E258" s="6"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A259" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B259" s="6">
-        <v>1</v>
-      </c>
+    <row r="259" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A259" s="7"/>
+      <c r="B259" s="6"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="6"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A260" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B260" s="6">
-        <v>1</v>
-      </c>
-      <c r="C260" s="7"/>
-      <c r="D260" s="7"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="8"/>
+    <row r="260" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A260" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="18"/>
     </row>
     <row r="261" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A261" s="7"/>
-      <c r="B261" s="6"/>
+      <c r="A261" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B261" s="6">
+        <v>1</v>
+      </c>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="6"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A262" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B262" s="9"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="9"/>
-      <c r="F262" s="18"/>
-    </row>
-    <row r="263" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="262" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A262" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B262" s="6">
+        <v>1</v>
+      </c>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="8"/>
+    </row>
+    <row r="263" s="1" customFormat="1" ht="54" customHeight="1" spans="1:6">
       <c r="A263" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B263" s="6">
         <v>1</v>
@@ -5140,9 +5171,9 @@
       <c r="E263" s="6"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="264" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A264" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B264" s="6">
         <v>1</v>
@@ -5152,9 +5183,9 @@
       <c r="E264" s="6"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" s="1" customFormat="1" ht="54" customHeight="1" spans="1:6">
+    <row r="265" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A265" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B265" s="6">
         <v>1</v>
@@ -5166,7 +5197,7 @@
     </row>
     <row r="266" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A266" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B266" s="6">
         <v>1</v>
@@ -5176,9 +5207,9 @@
       <c r="E266" s="6"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="267" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A267" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B267" s="6">
         <v>1</v>
@@ -5189,30 +5220,22 @@
       <c r="F267" s="8"/>
     </row>
     <row r="268" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A268" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B268" s="6">
-        <v>1</v>
-      </c>
+      <c r="A268" s="7"/>
+      <c r="B268" s="6"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="6"/>
       <c r="F268" s="8"/>
     </row>
     <row r="269" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A269" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B269" s="6">
-        <v>1</v>
-      </c>
+      <c r="A269" s="7"/>
+      <c r="B269" s="6"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="6"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="270" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
       <c r="A270" s="7"/>
       <c r="B270" s="6"/>
       <c r="C270" s="7"/>
@@ -5220,7 +5243,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="271" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A271" s="7"/>
       <c r="B271" s="6"/>
       <c r="C271" s="7"/>
@@ -5228,7 +5251,7 @@
       <c r="E271" s="6"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
+    <row r="272" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A272" s="7"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
@@ -5236,20 +5259,20 @@
       <c r="E272" s="6"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="273" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A273" s="7"/>
       <c r="B273" s="6"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
-      <c r="E273" s="6"/>
+      <c r="E273" s="12"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="274" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A274" s="7"/>
       <c r="B274" s="6"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
-      <c r="E274" s="6"/>
+      <c r="E274" s="12"/>
       <c r="F274" s="8"/>
     </row>
     <row r="275" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
@@ -5260,23 +5283,7 @@
       <c r="E275" s="12"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A276" s="7"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="7"/>
-      <c r="D276" s="7"/>
-      <c r="E276" s="12"/>
-      <c r="F276" s="8"/>
-    </row>
-    <row r="277" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A277" s="7"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="7"/>
-      <c r="D277" s="7"/>
-      <c r="E277" s="12"/>
-      <c r="F277" s="8"/>
-    </row>
-    <row r="278" ht="34" customHeight="1"/>
+    <row r="276" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5306,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -5317,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -5326,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C3" s="6"/>
     </row>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13240" tabRatio="688"/>
+    <workbookView windowWidth="28800" windowHeight="11780" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="题目统计" sheetId="17" r:id="rId1"/>
@@ -2048,7 +2048,7 @@
   <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>

--- a/00-记录统计.xlsx
+++ b/00-记录统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11780" tabRatio="688"/>
+    <workbookView windowWidth="30240" windowHeight="13340" tabRatio="688"/>
   </bookViews>
   <sheets>
     <sheet name="题目统计" sheetId="17" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS!$A$1:$C$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目统计!$B$9:$F$275</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目统计!$B$10:$F$276</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="271">
   <si>
     <t>题目</t>
   </si>
@@ -99,6 +99,15 @@
     <t>webpack配置原理</t>
   </si>
   <si>
+    <t>webpack的构建流程
+Webpack 的打包构建流程是什么
+webpack 的构建/打包流程是什么
+Webpack 的核心原理是什么</t>
+  </si>
+  <si>
+    <t>2025.04.22~  x天</t>
+  </si>
+  <si>
     <t>基础含义和配置</t>
   </si>
   <si>
@@ -494,12 +503,6 @@
   <si>
     <t>如何使用 Webpack 实现异步加载
 webpack  如何做异步加载, 异步加载的原理</t>
-  </si>
-  <si>
-    <t>webpack的构建流程
-Webpack 的打包构建流程是什么
-webpack 的构建/打包流程是什么
-Webpack 的核心原理是什么</t>
   </si>
   <si>
     <t>Import 和 CommonJS 在 webpack 打包过程中有什么不同
@@ -2045,10 +2048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2164,39 +2167,41 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A8" s="13" t="s">
+    <row r="7" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="B7" s="6">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="17"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6">
         <v>2</v>
@@ -2206,9 +2211,9 @@
       <c r="E10" s="6"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
+    <row r="11" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
@@ -2218,12 +2223,12 @@
       <c r="E11" s="6"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="12" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2232,10 +2237,10 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2244,7 +2249,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6">
         <v>5</v>
@@ -2256,34 +2261,34 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2292,7 +2297,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2304,7 +2309,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2314,24 +2319,24 @@
       <c r="E19" s="6"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="76" customHeight="1" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="76" customHeight="1" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2340,7 +2345,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2352,7 +2357,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2364,7 +2369,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -2374,45 +2379,45 @@
       <c r="E24" s="6"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="105" customHeight="1" spans="1:6">
+    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="26" s="1" customFormat="1" ht="105" customHeight="1" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
+    <row r="27" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6">
         <v>2</v>
@@ -2424,7 +2429,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A29" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
@@ -2434,9 +2439,9 @@
       <c r="E29" s="6"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+    <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A30" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -2446,9 +2451,9 @@
       <c r="E30" s="6"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
@@ -2458,33 +2463,33 @@
       <c r="E31" s="6"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="95" customHeight="1" spans="1:6">
+    <row r="32" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
+    <row r="33" s="1" customFormat="1" ht="95" customHeight="1" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="6">
         <v>2</v>
@@ -2494,12 +2499,12 @@
       <c r="E34" s="6"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="35" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2508,10 +2513,10 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A36" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2520,34 +2525,34 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A37" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="68" customHeight="1" spans="1:6">
+    <row r="38" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="39" s="1" customFormat="1" ht="68" customHeight="1" spans="1:6">
       <c r="A39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2556,34 +2561,34 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A40" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="64" customHeight="1" spans="1:6">
+    <row r="41" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="42" s="1" customFormat="1" ht="64" customHeight="1" spans="1:6">
       <c r="A42" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2592,7 +2597,7 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A43" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -2604,7 +2609,7 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A44" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -2616,7 +2621,7 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -2628,7 +2633,7 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A46" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="6">
         <v>1</v>
@@ -2638,21 +2643,21 @@
       <c r="E46" s="6"/>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A47" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="6"/>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="48" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A48" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="6">
         <v>2</v>
@@ -2664,10 +2669,10 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A49" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2676,7 +2681,7 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A50" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
@@ -2688,7 +2693,7 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -2700,10 +2705,10 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A52" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2712,10 +2717,10 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2724,10 +2729,10 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A54" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2736,10 +2741,10 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A55" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2748,7 +2753,7 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A56" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="6">
         <v>1</v>
@@ -2758,24 +2763,24 @@
       <c r="E56" s="6"/>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="57" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A57" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="6"/>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="58" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A58" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2784,7 +2789,7 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A59" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="6">
         <v>1</v>
@@ -2796,7 +2801,7 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A60" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" s="6">
         <v>1</v>
@@ -2806,24 +2811,24 @@
       <c r="E60" s="6"/>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="61" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A61" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="62" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A62" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2832,7 +2837,7 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A63" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
@@ -2844,7 +2849,7 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A64" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="6">
         <v>1</v>
@@ -2856,10 +2861,10 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A65" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2868,34 +2873,34 @@
     </row>
     <row r="66" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A66" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
+    <row r="67" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="6"/>
       <c r="F67" s="17"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="68" s="1" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A68" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2903,41 +2908,41 @@
       <c r="F68" s="17"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A69" s="7"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1</v>
+      </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
-      <c r="A70" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A71" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="6">
+    <row r="70" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A71" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A72" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="6">
         <v>2</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="17"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A72" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="6">
-        <v>1</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2945,101 +2950,101 @@
       <c r="F72" s="17"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A73" s="7"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="6"/>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A74" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A75" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="6">
-        <v>1</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="17"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+    <row r="74" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A74" s="7"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A75" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A76" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="6"/>
       <c r="F76" s="17"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
+    <row r="77" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A77" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="6"/>
       <c r="F77" s="17"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="78" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A78" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
       <c r="F78" s="17"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
+    <row r="79" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A79" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="6"/>
       <c r="F79" s="17"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
+    <row r="80" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
       <c r="A80" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="6"/>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="81" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
       <c r="A81" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3048,10 +3053,10 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A82" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3060,10 +3065,10 @@
     </row>
     <row r="83" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A83" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3072,58 +3077,58 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A84" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="6"/>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="59" customHeight="1" spans="1:6">
+    <row r="85" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A85" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="6"/>
       <c r="F85" s="17"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+    <row r="86" s="1" customFormat="1" ht="59" customHeight="1" spans="1:6">
       <c r="A86" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
       <c r="F86" s="17"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
+    <row r="87" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A87" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="6"/>
       <c r="F87" s="17"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+    <row r="88" s="1" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A88" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3132,7 +3137,7 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A89" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -3144,7 +3149,7 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A90" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -3156,10 +3161,10 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A91" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3168,10 +3173,10 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A92" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3180,7 +3185,7 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A93" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B93" s="6">
         <v>1</v>
@@ -3192,7 +3197,7 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A94" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B94" s="6">
         <v>1</v>
@@ -3204,7 +3209,7 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A95" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B95" s="6">
         <v>1</v>
@@ -3216,7 +3221,7 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A96" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B96" s="6">
         <v>1</v>
@@ -3228,7 +3233,7 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A97" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
@@ -3238,39 +3243,39 @@
       <c r="E97" s="6"/>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A98" s="7"/>
-      <c r="B98" s="6"/>
+    <row r="98" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A98" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="6"/>
       <c r="F98" s="17"/>
     </row>
-    <row r="99" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A99" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="89" customHeight="1" spans="1:6">
-      <c r="A100" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" s="6">
-        <v>11</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="17"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="110" customHeight="1" spans="1:6">
+    <row r="99" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A99" s="7"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A100" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="89" customHeight="1" spans="1:6">
       <c r="A101" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B101" s="6">
         <v>11</v>
@@ -3280,24 +3285,24 @@
       <c r="E101" s="6"/>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="102" s="1" customFormat="1" ht="110" customHeight="1" spans="1:6">
       <c r="A102" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B102" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="6"/>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
+    <row r="103" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A103" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B103" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3306,58 +3311,58 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A104" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B104" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="6"/>
       <c r="F104" s="17"/>
     </row>
-    <row r="105" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="105" s="1" customFormat="1" ht="83" customHeight="1" spans="1:6">
       <c r="A105" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B105" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="6"/>
       <c r="F105" s="17"/>
     </row>
-    <row r="106" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
+    <row r="106" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A106" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="6"/>
       <c r="F106" s="17"/>
     </row>
-    <row r="107" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+    <row r="107" s="1" customFormat="1" ht="53" customHeight="1" spans="1:6">
       <c r="A107" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="6"/>
       <c r="F107" s="17"/>
     </row>
-    <row r="108" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="108" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A108" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3366,10 +3371,10 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A109" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3378,10 +3383,10 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A110" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B110" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3390,7 +3395,7 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A111" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B111" s="6">
         <v>2</v>
@@ -3402,10 +3407,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A112" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B112" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3414,7 +3419,7 @@
     </row>
     <row r="113" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A113" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" s="6">
         <v>1</v>
@@ -3424,12 +3429,12 @@
       <c r="E113" s="6"/>
       <c r="F113" s="17"/>
     </row>
-    <row r="114" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
+    <row r="114" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A114" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3438,10 +3443,10 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A115" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3450,10 +3455,10 @@
     </row>
     <row r="116" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A116" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B116" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3462,10 +3467,10 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A117" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3473,8 +3478,12 @@
       <c r="F117" s="17"/>
     </row>
     <row r="118" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
-      <c r="A118" s="7"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="6">
+        <v>3</v>
+      </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="6"/>
@@ -3488,7 +3497,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="120" s="1" customFormat="1" ht="46" customHeight="1" spans="1:6">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
@@ -3496,101 +3505,97 @@
       <c r="E120" s="6"/>
       <c r="F120" s="17"/>
     </row>
-    <row r="121" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A121" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="18"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A122" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="6">
-        <v>9</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="17"/>
+    <row r="121" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A121" s="7"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A122" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A123" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B123" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="6"/>
       <c r="F123" s="17"/>
     </row>
-    <row r="124" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+    <row r="124" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A124" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B124" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="6"/>
       <c r="F124" s="17"/>
     </row>
-    <row r="125" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
+    <row r="125" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A125" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B125" s="6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="6"/>
       <c r="F125" s="17"/>
     </row>
-    <row r="126" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
+    <row r="126" s="1" customFormat="1" ht="79" customHeight="1" spans="1:6">
       <c r="A126" s="7" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="B126" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="6"/>
       <c r="F126" s="17"/>
     </row>
-    <row r="127" s="1" customFormat="1" ht="84" customHeight="1" spans="1:6">
+    <row r="127" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
       <c r="A127" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B127" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="6"/>
       <c r="F127" s="17"/>
     </row>
-    <row r="128" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
+    <row r="128" s="1" customFormat="1" ht="84" customHeight="1" spans="1:6">
       <c r="A128" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B128" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="6"/>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="129" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A129" s="7" t="s">
         <v>133</v>
       </c>
@@ -3602,12 +3607,12 @@
       <c r="E129" s="6"/>
       <c r="F129" s="17"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+    <row r="130" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A130" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B130" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -3619,7 +3624,7 @@
         <v>135</v>
       </c>
       <c r="B131" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -3643,7 +3648,7 @@
         <v>137</v>
       </c>
       <c r="B133" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -3655,14 +3660,14 @@
         <v>138</v>
       </c>
       <c r="B134" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="6"/>
       <c r="F134" s="17"/>
     </row>
-    <row r="135" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="135" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A135" s="7" t="s">
         <v>139</v>
       </c>
@@ -3710,42 +3715,42 @@
       <c r="E138" s="6"/>
       <c r="F138" s="17"/>
     </row>
-    <row r="139" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A139" s="7"/>
-      <c r="B139" s="6"/>
+    <row r="139" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A139" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="6">
+        <v>1</v>
+      </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="6"/>
       <c r="F139" s="17"/>
     </row>
-    <row r="140" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A140" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="18"/>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="88" customHeight="1" spans="1:6">
-      <c r="A141" s="7" t="s">
+    <row r="140" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A140" s="7"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="17"/>
+    </row>
+    <row r="141" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A141" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B141" s="6">
-        <v>4</v>
-      </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="17"/>
-    </row>
-    <row r="142" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="B141" s="9"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="88" customHeight="1" spans="1:6">
       <c r="A142" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -3781,7 +3786,7 @@
         <v>148</v>
       </c>
       <c r="B145" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -3793,7 +3798,7 @@
         <v>149</v>
       </c>
       <c r="B146" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -3841,7 +3846,7 @@
         <v>153</v>
       </c>
       <c r="B150" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -3853,7 +3858,7 @@
         <v>154</v>
       </c>
       <c r="B151" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -4161,38 +4166,38 @@
       <c r="F176" s="17"/>
     </row>
     <row r="177" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A177" s="7"/>
-      <c r="B177" s="6"/>
+      <c r="A177" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="6">
+        <v>1</v>
+      </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="6"/>
       <c r="F177" s="17"/>
     </row>
-    <row r="178" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A178" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B178" s="9">
-        <v>1</v>
-      </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="18"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A179" s="7" t="s">
+    <row r="178" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A178" s="7"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="17"/>
+    </row>
+    <row r="179" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A179" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="6">
-        <v>2</v>
-      </c>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="8"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="B179" s="9">
+        <v>1</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="18"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A180" s="7" t="s">
         <v>182</v>
       </c>
@@ -4202,14 +4207,14 @@
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="6"/>
-      <c r="F180" s="17"/>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A181" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B181" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -4253,34 +4258,34 @@
       <c r="F184" s="17"/>
     </row>
     <row r="185" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A185" s="7"/>
-      <c r="B185" s="6"/>
+      <c r="A185" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="6">
+        <v>1</v>
+      </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="6"/>
       <c r="F185" s="17"/>
     </row>
-    <row r="186" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A186" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="18"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A187" s="7" t="s">
+    <row r="186" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A186" s="7"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="17"/>
+    </row>
+    <row r="187" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A187" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B187" s="6">
-        <v>1</v>
-      </c>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="8"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="18"/>
     </row>
     <row r="188" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A188" s="7" t="s">
@@ -4299,7 +4304,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -4307,41 +4312,41 @@
       <c r="F189" s="8"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A190" s="7"/>
-      <c r="B190" s="6"/>
+      <c r="A190" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="6">
+        <v>2</v>
+      </c>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="6"/>
-      <c r="F190" s="17"/>
-    </row>
-    <row r="191" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A191" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="9"/>
-      <c r="F191" s="18"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
-      <c r="A192" s="7" t="s">
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A191" s="7"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="17"/>
+    </row>
+    <row r="192" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A192" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="6">
-        <v>2</v>
-      </c>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="8"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="B192" s="9"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="18"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A193" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B193" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
@@ -4353,7 +4358,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
@@ -4365,43 +4370,43 @@
         <v>195</v>
       </c>
       <c r="B195" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="6"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" s="1" customFormat="1" ht="80" customHeight="1" spans="1:6">
+    <row r="196" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A196" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B196" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="6"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" s="1" customFormat="1" ht="74" customHeight="1" spans="1:6">
+    <row r="197" s="1" customFormat="1" ht="80" customHeight="1" spans="1:6">
       <c r="A197" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B197" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="6"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="198" s="1" customFormat="1" ht="74" customHeight="1" spans="1:6">
       <c r="A198" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B198" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
@@ -4409,101 +4414,101 @@
       <c r="F198" s="8"/>
     </row>
     <row r="199" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A199" s="7"/>
-      <c r="B199" s="6"/>
+      <c r="A199" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="6">
+        <v>2</v>
+      </c>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="6"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A200" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B200" s="9"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="9"/>
-      <c r="F200" s="18"/>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A201" s="7" t="s">
+    <row r="200" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A200" s="7"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A201" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="6">
-        <v>3</v>
-      </c>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="17"/>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="B201" s="9"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="18"/>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A202" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B202" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="6"/>
-      <c r="F202" s="8"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="90" customHeight="1" spans="1:6">
+      <c r="F202" s="17"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A203" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B203" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="6"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="204" s="1" customFormat="1" ht="90" customHeight="1" spans="1:6">
       <c r="A204" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B204" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="6"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" s="1" customFormat="1" ht="81" customHeight="1" spans="1:6">
+    <row r="205" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A205" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B205" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="6"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" s="1" customFormat="1" ht="75" customHeight="1" spans="1:6">
+    <row r="206" s="1" customFormat="1" ht="81" customHeight="1" spans="1:6">
       <c r="A206" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B206" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="6"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="207" s="1" customFormat="1" ht="75" customHeight="1" spans="1:6">
       <c r="A207" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B207" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
@@ -4522,24 +4527,24 @@
       <c r="E208" s="6"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" s="1" customFormat="1" ht="63" customHeight="1" spans="1:6">
+    <row r="209" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A209" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B209" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="6"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="210" s="1" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A210" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B210" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
@@ -4551,7 +4556,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
@@ -4563,7 +4568,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
@@ -5122,37 +5127,37 @@
       <c r="E258" s="6"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A259" s="7"/>
-      <c r="B259" s="6"/>
+    <row r="259" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A259" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" s="6">
+        <v>1</v>
+      </c>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="6"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A260" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B260" s="9"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="9"/>
-      <c r="F260" s="18"/>
-    </row>
-    <row r="261" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A261" s="7" t="s">
+    <row r="260" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A260" s="7"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="8"/>
+    </row>
+    <row r="261" s="2" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A261" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B261" s="6">
-        <v>1</v>
-      </c>
-      <c r="C261" s="7"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="8"/>
-    </row>
-    <row r="262" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="B261" s="9"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="18"/>
+    </row>
+    <row r="262" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A262" s="7" t="s">
         <v>260</v>
       </c>
@@ -5164,7 +5169,7 @@
       <c r="E262" s="6"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" s="1" customFormat="1" ht="54" customHeight="1" spans="1:6">
+    <row r="263" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A263" s="7" t="s">
         <v>261</v>
       </c>
@@ -5176,7 +5181,7 @@
       <c r="E263" s="6"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="264" s="1" customFormat="1" ht="54" customHeight="1" spans="1:6">
       <c r="A264" s="7" t="s">
         <v>262</v>
       </c>
@@ -5188,7 +5193,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="265" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A265" s="7" t="s">
         <v>263</v>
       </c>
@@ -5200,7 +5205,7 @@
       <c r="E265" s="6"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="266" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A266" s="7" t="s">
         <v>264</v>
       </c>
@@ -5225,8 +5230,12 @@
       <c r="F267" s="8"/>
     </row>
     <row r="268" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A268" s="7"/>
-      <c r="B268" s="6"/>
+      <c r="A268" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" s="6">
+        <v>1</v>
+      </c>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="6"/>
@@ -5240,7 +5249,7 @@
       <c r="E269" s="6"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
+    <row r="270" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A270" s="7"/>
       <c r="B270" s="6"/>
       <c r="C270" s="7"/>
@@ -5248,7 +5257,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="271" s="1" customFormat="1" ht="38" customHeight="1" spans="1:6">
       <c r="A271" s="7"/>
       <c r="B271" s="6"/>
       <c r="C271" s="7"/>
@@ -5264,12 +5273,12 @@
       <c r="E272" s="6"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+    <row r="273" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A273" s="7"/>
       <c r="B273" s="6"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
-      <c r="E273" s="12"/>
+      <c r="E273" s="6"/>
       <c r="F273" s="8"/>
     </row>
     <row r="274" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
@@ -5288,7 +5297,15 @@
       <c r="E275" s="12"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" ht="34" customHeight="1"/>
+    <row r="276" s="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
+      <c r="A276" s="7"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="8"/>
+    </row>
+    <row r="277" ht="34" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5318,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
@@ -5329,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -5338,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C3" s="6"/>
     </row>
